--- a/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
+++ b/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="janeiro" sheetId="15" r:id="rId1"/>
     <sheet name="fevereiro" sheetId="16" r:id="rId2"/>
     <sheet name="marco" sheetId="18" r:id="rId3"/>
-    <sheet name="julho 2023" sheetId="3" r:id="rId4"/>
-    <sheet name="agosto" sheetId="14" r:id="rId5"/>
-    <sheet name="agostoInvest" sheetId="17" r:id="rId6"/>
+    <sheet name="abril" sheetId="19" r:id="rId4"/>
+    <sheet name="julho 2023" sheetId="3" r:id="rId5"/>
+    <sheet name="agosto" sheetId="14" r:id="rId6"/>
+    <sheet name="agostoInvest" sheetId="17" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="237">
   <si>
     <t>DATA</t>
   </si>
@@ -677,6 +678,72 @@
   </si>
   <si>
     <t>PHOENIX RISING vs SAN ANTONIO</t>
+  </si>
+  <si>
+    <t>LEEDS UTD vs BRIGHTON</t>
+  </si>
+  <si>
+    <t>FC TOKYO vs YOKOHAMA FC</t>
+  </si>
+  <si>
+    <t>MONACO vs REIMS</t>
+  </si>
+  <si>
+    <t>WOLFSBURG vs UNION BERLIN</t>
+  </si>
+  <si>
+    <t>AC MILAN vs SALERNITANA</t>
+  </si>
+  <si>
+    <t>MONZA vs CREMONESE</t>
+  </si>
+  <si>
+    <t>PLYMOUTH vs FOREST GREEN</t>
+  </si>
+  <si>
+    <t>AVISPA FUKUOKA vs SHONAN BELLMARE</t>
+  </si>
+  <si>
+    <t>STRASBOURG vs AUXERRE</t>
+  </si>
+  <si>
+    <t>SWANSEA CITY vs BRISTOL CITY</t>
+  </si>
+  <si>
+    <t>UNION BERLIN vs E. FRANKFURT</t>
+  </si>
+  <si>
+    <t>AUXERRE vs TROYES</t>
+  </si>
+  <si>
+    <t>SHONAN BELLMARE vs GAMBA OSAKA</t>
+  </si>
+  <si>
+    <t>UNION BERLIN vs STUTTGART</t>
+  </si>
+  <si>
+    <t>LILLE vs LORIENT</t>
+  </si>
+  <si>
+    <t>MONACO vs STRASBOURG</t>
+  </si>
+  <si>
+    <t>NEWCASTLE UTD vs MANCHESTER UTD</t>
+  </si>
+  <si>
+    <t>BOURNEMOUTH vs BRIGHTON</t>
+  </si>
+  <si>
+    <t>AC MILAN vs EMPOLI</t>
+  </si>
+  <si>
+    <t>LENS vs STRASBOURG</t>
+  </si>
+  <si>
+    <t>FREIBURG vs BAYERN MUNICH</t>
+  </si>
+  <si>
+    <t>4--3</t>
   </si>
 </sst>
 </file>
@@ -988,7 +1055,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1036,6 +1103,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1391,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView topLeftCell="D36" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4817,7 +4894,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4830,7 +4907,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7142,7 +7221,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7153,16 +7232,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="13" width="9.140625" style="6"/>
     <col min="14" max="14" width="16.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="19" width="9.140625" style="6"/>
@@ -7255,6 +7334,9 @@
       <c r="I2" s="6">
         <v>1.54</v>
       </c>
+      <c r="J2" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="K2" s="6">
         <v>1.32</v>
       </c>
@@ -7311,6 +7393,9 @@
       <c r="I3" s="6">
         <v>1.48</v>
       </c>
+      <c r="J3" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="K3" s="6">
         <v>404</v>
       </c>
@@ -7367,6 +7452,9 @@
       <c r="I4" s="6">
         <v>1.4</v>
       </c>
+      <c r="J4" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="K4" s="6">
         <v>1.23</v>
       </c>
@@ -7423,6 +7511,9 @@
       <c r="I5" s="6">
         <v>1.6</v>
       </c>
+      <c r="J5" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="K5" s="6">
         <v>1.38</v>
       </c>
@@ -7479,6 +7570,9 @@
       <c r="I6" s="6">
         <v>1.68</v>
       </c>
+      <c r="J6" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="K6" s="6">
         <v>1.45</v>
       </c>
@@ -7505,6 +7599,1359 @@
       </c>
       <c r="S6" s="6">
         <v>3.19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>44996</v>
+      </c>
+      <c r="B7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="6">
+        <v>4.47</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1.85</v>
+      </c>
+      <c r="F7" s="6">
+        <v>3.85</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1.92</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1.99</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1.68</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1.44</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="M7" s="6">
+        <v>52</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="O7" s="6">
+        <v>1.35</v>
+      </c>
+      <c r="P7" s="6">
+        <v>2.16</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>2.57</v>
+      </c>
+      <c r="R7" s="6">
+        <v>2.91</v>
+      </c>
+      <c r="S7" s="6">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>44997</v>
+      </c>
+      <c r="B8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1.71</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3.84</v>
+      </c>
+      <c r="E8" s="6">
+        <v>5.35</v>
+      </c>
+      <c r="F8" s="6">
+        <v>3.41</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2.06</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1.84</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1.79</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1.54</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="M8" s="6">
+        <v>58</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="O8" s="6">
+        <v>404</v>
+      </c>
+      <c r="P8" s="6">
+        <v>2.36</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>2.91</v>
+      </c>
+      <c r="R8" s="6">
+        <v>404</v>
+      </c>
+      <c r="S8" s="6">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>44997</v>
+      </c>
+      <c r="B9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1.95</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3.76</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4.09</v>
+      </c>
+      <c r="F9" s="6">
+        <v>404</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1.76</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2.19</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1.55</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1.34</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="M9" s="6">
+        <v>36</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="6">
+        <v>1.28</v>
+      </c>
+      <c r="P9" s="6">
+        <v>1.94</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="R9" s="6">
+        <v>2.54</v>
+      </c>
+      <c r="S9" s="6">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>44997</v>
+      </c>
+      <c r="B10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2.79</v>
+      </c>
+      <c r="D10" s="6">
+        <v>3.05</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2.99</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2.72</v>
+      </c>
+      <c r="G10" s="6">
+        <v>2.61</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1.55</v>
+      </c>
+      <c r="I10" s="6">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1.91</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="6">
+        <v>27</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O10" s="6">
+        <v>1.65</v>
+      </c>
+      <c r="P10" s="6">
+        <v>3.13</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="R10" s="6">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="S10" s="6">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>44998</v>
+      </c>
+      <c r="B11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1.26</v>
+      </c>
+      <c r="D11" s="6">
+        <v>6.13</v>
+      </c>
+      <c r="E11" s="6">
+        <v>13.4</v>
+      </c>
+      <c r="F11" s="6">
+        <v>3.81</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1.72</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1.53</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1.32</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="6">
+        <v>54</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11" s="6">
+        <v>1.27</v>
+      </c>
+      <c r="P11" s="6">
+        <v>1.92</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="R11" s="6">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="S11" s="6">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>45003</v>
+      </c>
+      <c r="B12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1.99</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3.44</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.37</v>
+      </c>
+      <c r="F12" s="6">
+        <v>3.15</v>
+      </c>
+      <c r="G12" s="6">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1.71</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1.96</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1.66</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="6">
+        <v>26</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="P12" s="6">
+        <v>2.62</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>3.31</v>
+      </c>
+      <c r="R12" s="6">
+        <v>3.71</v>
+      </c>
+      <c r="S12" s="6">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>45003</v>
+      </c>
+      <c r="B13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1.38</v>
+      </c>
+      <c r="D13" s="6">
+        <v>4.95</v>
+      </c>
+      <c r="E13" s="6">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="F13" s="6">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1.71</v>
+      </c>
+      <c r="H13" s="6">
+        <v>2.21</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K13" s="6">
+        <v>404</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M13" s="6">
+        <v>48</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="6">
+        <v>404</v>
+      </c>
+      <c r="P13" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>2.19</v>
+      </c>
+      <c r="R13" s="6">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="S13" s="6">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>45004</v>
+      </c>
+      <c r="B14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3.11</v>
+      </c>
+      <c r="D14" s="6">
+        <v>3.01</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2.68</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2.38</v>
+      </c>
+      <c r="G14" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1.44</v>
+      </c>
+      <c r="I14" s="6">
+        <v>2.54</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" s="6">
+        <v>2.16</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="6">
+        <v>48</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="O14" s="6">
+        <v>1.83</v>
+      </c>
+      <c r="P14" s="6">
+        <v>404</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>404</v>
+      </c>
+      <c r="R14" s="6">
+        <v>404</v>
+      </c>
+      <c r="S14" s="6">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>45004</v>
+      </c>
+      <c r="B15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2.02</v>
+      </c>
+      <c r="D15" s="6">
+        <v>3.37</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4.33</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2.92</v>
+      </c>
+      <c r="G15" s="6">
+        <v>2.36</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1.65</v>
+      </c>
+      <c r="I15" s="6">
+        <v>2.06</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M15" s="6">
+        <v>26</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" s="6">
+        <v>1.56</v>
+      </c>
+      <c r="P15" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>3.65</v>
+      </c>
+      <c r="R15" s="6">
+        <v>4.09</v>
+      </c>
+      <c r="S15" s="6">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>45004</v>
+      </c>
+      <c r="B16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="E16" s="6">
+        <v>3.99</v>
+      </c>
+      <c r="F16" s="6">
+        <v>3.65</v>
+      </c>
+      <c r="G16" s="6">
+        <v>2.02</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1.88</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1.49</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M16" s="6">
+        <v>36</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O16" s="6">
+        <v>1.38</v>
+      </c>
+      <c r="P16" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="R16" s="6">
+        <v>3.16</v>
+      </c>
+      <c r="S16" s="6">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>45004</v>
+      </c>
+      <c r="B17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2.38</v>
+      </c>
+      <c r="D17" s="6">
+        <v>3.06</v>
+      </c>
+      <c r="E17" s="6">
+        <v>3.63</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2.63</v>
+      </c>
+      <c r="G17" s="6">
+        <v>2.74</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1.51</v>
+      </c>
+      <c r="I17" s="6">
+        <v>2.36</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1.99</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M17" s="6">
+        <v>56</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O17" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="P17" s="6">
+        <v>3.32</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="R17" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="S17" s="6">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>45005</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="6">
+        <v>5.31</v>
+      </c>
+      <c r="D18" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1.69</v>
+      </c>
+      <c r="F18" s="6">
+        <v>3.74</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1.88</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1.98</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1.66</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1.44</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="M18" s="6">
+        <v>68</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" s="6">
+        <v>404</v>
+      </c>
+      <c r="P18" s="6">
+        <v>2.11</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>2.52</v>
+      </c>
+      <c r="R18" s="6">
+        <v>2.71</v>
+      </c>
+      <c r="S18" s="6">
+        <v>3.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"NOT INVEST"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="144" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>45017</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2">
+        <v>1.91</v>
+      </c>
+      <c r="D2">
+        <v>3.5</v>
+      </c>
+      <c r="E2">
+        <v>4.68</v>
+      </c>
+      <c r="F2">
+        <v>3.09</v>
+      </c>
+      <c r="G2">
+        <v>2.25</v>
+      </c>
+      <c r="H2">
+        <v>1.71</v>
+      </c>
+      <c r="I2">
+        <v>1.97</v>
+      </c>
+      <c r="K2">
+        <v>1.67</v>
+      </c>
+      <c r="L2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M2">
+        <v>53</v>
+      </c>
+      <c r="N2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2">
+        <v>1.5</v>
+      </c>
+      <c r="P2">
+        <v>2.62</v>
+      </c>
+      <c r="Q2">
+        <v>3.3</v>
+      </c>
+      <c r="R2">
+        <v>3.69</v>
+      </c>
+      <c r="S2">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>45017</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D3">
+        <v>3.5</v>
+      </c>
+      <c r="E3">
+        <v>3.85</v>
+      </c>
+      <c r="F3">
+        <v>3.28</v>
+      </c>
+      <c r="G3">
+        <v>2.14</v>
+      </c>
+      <c r="H3">
+        <v>1.76</v>
+      </c>
+      <c r="I3">
+        <v>1.88</v>
+      </c>
+      <c r="K3">
+        <v>1.59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>182</v>
+      </c>
+      <c r="M3">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O3">
+        <v>1.45</v>
+      </c>
+      <c r="P3">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="Q3">
+        <v>2.93</v>
+      </c>
+      <c r="R3">
+        <v>404</v>
+      </c>
+      <c r="S3">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>45017</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D4">
+        <v>3.2</v>
+      </c>
+      <c r="E4">
+        <v>3.95</v>
+      </c>
+      <c r="F4">
+        <v>2.59</v>
+      </c>
+      <c r="G4">
+        <v>2.65</v>
+      </c>
+      <c r="H4">
+        <v>1.53</v>
+      </c>
+      <c r="I4">
+        <v>2.31</v>
+      </c>
+      <c r="K4">
+        <v>1.93</v>
+      </c>
+      <c r="L4" t="s">
+        <v>209</v>
+      </c>
+      <c r="M4">
+        <v>76</v>
+      </c>
+      <c r="N4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4">
+        <v>1.7</v>
+      </c>
+      <c r="P4">
+        <v>3.21</v>
+      </c>
+      <c r="Q4">
+        <v>4.41</v>
+      </c>
+      <c r="R4">
+        <v>4.25</v>
+      </c>
+      <c r="S4">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>45018</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5">
+        <v>1.38</v>
+      </c>
+      <c r="D5">
+        <v>5.49</v>
+      </c>
+      <c r="E5">
+        <v>7.83</v>
+      </c>
+      <c r="F5">
+        <v>404</v>
+      </c>
+      <c r="G5">
+        <v>1.52</v>
+      </c>
+      <c r="H5">
+        <v>2.68</v>
+      </c>
+      <c r="I5">
+        <v>1.34</v>
+      </c>
+      <c r="K5">
+        <v>1.22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>180</v>
+      </c>
+      <c r="M5">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5">
+        <v>1.23</v>
+      </c>
+      <c r="P5">
+        <v>1.63</v>
+      </c>
+      <c r="Q5">
+        <v>1.8</v>
+      </c>
+      <c r="R5">
+        <v>2.06</v>
+      </c>
+      <c r="S5">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>45018</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6">
+        <v>1.56</v>
+      </c>
+      <c r="D6">
+        <v>4.46</v>
+      </c>
+      <c r="E6">
+        <v>6.2</v>
+      </c>
+      <c r="F6">
+        <v>404</v>
+      </c>
+      <c r="G6">
+        <v>1.75</v>
+      </c>
+      <c r="H6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I6">
+        <v>1.54</v>
+      </c>
+      <c r="K6">
+        <v>1.34</v>
+      </c>
+      <c r="L6" t="s">
+        <v>236</v>
+      </c>
+      <c r="M6">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6">
+        <v>1.28</v>
+      </c>
+      <c r="P6">
+        <v>1.93</v>
+      </c>
+      <c r="Q6">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="R6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="S6">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>45018</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="D7">
+        <v>3.63</v>
+      </c>
+      <c r="E7">
+        <v>3.17</v>
+      </c>
+      <c r="F7">
+        <v>4.08</v>
+      </c>
+      <c r="G7">
+        <v>1.86</v>
+      </c>
+      <c r="H7">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I7">
+        <v>1.63</v>
+      </c>
+      <c r="K7">
+        <v>1.4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M7">
+        <v>58</v>
+      </c>
+      <c r="N7" t="s">
+        <v>135</v>
+      </c>
+      <c r="O7">
+        <v>1.32</v>
+      </c>
+      <c r="P7">
+        <v>2.08</v>
+      </c>
+      <c r="Q7">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="R7">
+        <v>2.79</v>
+      </c>
+      <c r="S7">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>45020</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8">
+        <v>5.99</v>
+      </c>
+      <c r="D8">
+        <v>4.37</v>
+      </c>
+      <c r="E8">
+        <v>1.59</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>1.78</v>
+      </c>
+      <c r="H8">
+        <v>2.15</v>
+      </c>
+      <c r="I8">
+        <v>1.57</v>
+      </c>
+      <c r="K8">
+        <v>1.36</v>
+      </c>
+      <c r="L8" t="s">
+        <v>190</v>
+      </c>
+      <c r="M8">
+        <v>61</v>
+      </c>
+      <c r="N8" t="s">
+        <v>135</v>
+      </c>
+      <c r="O8">
+        <v>1.3</v>
+      </c>
+      <c r="P8">
+        <v>1.98</v>
+      </c>
+      <c r="Q8">
+        <v>2.31</v>
+      </c>
+      <c r="R8">
+        <v>2.63</v>
+      </c>
+      <c r="S8">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>45023</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9">
+        <v>1.39</v>
+      </c>
+      <c r="D9">
+        <v>4.91</v>
+      </c>
+      <c r="E9">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="F9">
+        <v>3.94</v>
+      </c>
+      <c r="G9">
+        <v>1.91</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>1.67</v>
+      </c>
+      <c r="K9">
+        <v>1.43</v>
+      </c>
+      <c r="L9" t="s">
+        <v>186</v>
+      </c>
+      <c r="M9">
+        <v>39</v>
+      </c>
+      <c r="N9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9">
+        <v>1.34</v>
+      </c>
+      <c r="P9">
+        <v>2.14</v>
+      </c>
+      <c r="Q9">
+        <v>2.57</v>
+      </c>
+      <c r="R9">
+        <v>2.9</v>
+      </c>
+      <c r="S9">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>45023</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10">
+        <v>1.56</v>
+      </c>
+      <c r="D10">
+        <v>4.26</v>
+      </c>
+      <c r="E10">
+        <v>6.61</v>
+      </c>
+      <c r="F10">
+        <v>3.8</v>
+      </c>
+      <c r="G10">
+        <v>1.93</v>
+      </c>
+      <c r="H10">
+        <v>1.97</v>
+      </c>
+      <c r="I10">
+        <v>1.69</v>
+      </c>
+      <c r="K10">
+        <v>1.46</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10">
+        <v>37</v>
+      </c>
+      <c r="N10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10">
+        <v>1.36</v>
+      </c>
+      <c r="P10">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="Q10">
+        <v>2.64</v>
+      </c>
+      <c r="R10">
+        <v>2.97</v>
+      </c>
+      <c r="S10">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>45024</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11">
+        <v>6.49</v>
+      </c>
+      <c r="D11">
+        <v>4.91</v>
+      </c>
+      <c r="E11">
+        <v>1.5</v>
+      </c>
+      <c r="F11">
+        <v>404</v>
+      </c>
+      <c r="G11">
+        <v>1.58</v>
+      </c>
+      <c r="H11">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="I11">
+        <v>1.41</v>
+      </c>
+      <c r="K11">
+        <v>1.25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>179</v>
+      </c>
+      <c r="M11">
+        <v>53</v>
+      </c>
+      <c r="N11" t="s">
+        <v>79</v>
+      </c>
+      <c r="O11">
+        <v>1.25</v>
+      </c>
+      <c r="P11">
+        <v>1.71</v>
+      </c>
+      <c r="Q11">
+        <v>1.92</v>
+      </c>
+      <c r="R11">
+        <v>2.16</v>
+      </c>
+      <c r="S11">
+        <v>2.42</v>
       </c>
     </row>
   </sheetData>
@@ -7517,7 +8964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W7"/>
   <sheetViews>
@@ -7955,12 +9402,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8063,6 +9510,9 @@
       <c r="K2">
         <v>404</v>
       </c>
+      <c r="L2" t="s">
+        <v>184</v>
+      </c>
       <c r="M2">
         <v>38</v>
       </c>
@@ -8087,7 +9537,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>45143</v>
+        <v>45144</v>
       </c>
       <c r="B3" t="s">
         <v>113</v>
@@ -8428,11 +9878,53 @@
       <c r="B9" t="s">
         <v>214</v>
       </c>
+      <c r="C9">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D9">
+        <v>3.52</v>
+      </c>
+      <c r="E9">
+        <v>2.93</v>
+      </c>
+      <c r="F9">
+        <v>404</v>
+      </c>
+      <c r="G9">
+        <v>1.7190000000000001</v>
+      </c>
+      <c r="H9">
+        <v>2.11</v>
+      </c>
+      <c r="I9">
+        <v>1.512</v>
+      </c>
+      <c r="J9" t="s">
+        <v>155</v>
+      </c>
+      <c r="K9">
+        <v>404</v>
+      </c>
       <c r="M9">
         <v>21</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
+      </c>
+      <c r="O9">
+        <v>404</v>
+      </c>
+      <c r="P9">
+        <v>1.917</v>
+      </c>
+      <c r="Q9">
+        <v>2.23</v>
+      </c>
+      <c r="R9">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="S9">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -8446,7 +9938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>

--- a/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
+++ b/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="322">
   <si>
     <t>DATA</t>
   </si>
@@ -997,6 +997,18 @@
   </si>
   <si>
     <t>STAKE BET EX-OVER 2,5%</t>
+  </si>
+  <si>
+    <t>NEW MEXICO vs SAN ANTONIO</t>
+  </si>
+  <si>
+    <t>PHOENIX RISING vs EL PASO</t>
+  </si>
+  <si>
+    <t>SAN DIEGO LOYAL vs MEMPHIS</t>
+  </si>
+  <si>
+    <t>PALMEIRAS vs CRUZEIRO</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
@@ -1567,6 +1579,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5077,7 +5092,7 @@
         <v>4400</v>
       </c>
       <c r="H66" s="28">
-        <f t="shared" ref="H66:H97" si="4">G66-D$103</f>
+        <f t="shared" ref="H66:H74" si="4">G66-D$103</f>
         <v>1900</v>
       </c>
       <c r="I66" s="6" t="s">
@@ -10769,10 +10784,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11290,6 +11305,230 @@
       </c>
       <c r="S9">
         <v>404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>45151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C10">
+        <v>2.71</v>
+      </c>
+      <c r="D10">
+        <v>3.43</v>
+      </c>
+      <c r="E10">
+        <v>2.48</v>
+      </c>
+      <c r="F10">
+        <v>404</v>
+      </c>
+      <c r="G10">
+        <v>1.84</v>
+      </c>
+      <c r="H10">
+        <v>1.98</v>
+      </c>
+      <c r="I10">
+        <v>1.6020000000000001</v>
+      </c>
+      <c r="J10" t="s">
+        <v>154</v>
+      </c>
+      <c r="K10">
+        <v>1.369</v>
+      </c>
+      <c r="M10">
+        <v>30</v>
+      </c>
+      <c r="N10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10">
+        <v>404</v>
+      </c>
+      <c r="P10">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="Q10">
+        <v>2.42</v>
+      </c>
+      <c r="R10">
+        <v>404</v>
+      </c>
+      <c r="S10">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>45151</v>
+      </c>
+      <c r="B11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C11">
+        <v>2.06</v>
+      </c>
+      <c r="D11">
+        <v>3.62</v>
+      </c>
+      <c r="E11">
+        <v>3.27</v>
+      </c>
+      <c r="F11">
+        <v>404</v>
+      </c>
+      <c r="G11">
+        <v>1.694</v>
+      </c>
+      <c r="H11">
+        <v>2.15</v>
+      </c>
+      <c r="I11">
+        <v>1.4970000000000001</v>
+      </c>
+      <c r="J11" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11">
+        <v>404</v>
+      </c>
+      <c r="M11">
+        <v>23</v>
+      </c>
+      <c r="N11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11">
+        <v>404</v>
+      </c>
+      <c r="P11">
+        <v>1.8620000000000001</v>
+      </c>
+      <c r="Q11">
+        <v>2.15</v>
+      </c>
+      <c r="R11">
+        <v>2.4</v>
+      </c>
+      <c r="S11">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>45151</v>
+      </c>
+      <c r="B12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C12">
+        <v>1.877</v>
+      </c>
+      <c r="D12">
+        <v>3.81</v>
+      </c>
+      <c r="E12">
+        <v>3.72</v>
+      </c>
+      <c r="F12">
+        <v>404</v>
+      </c>
+      <c r="G12">
+        <v>1.6619999999999999</v>
+      </c>
+      <c r="H12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I12">
+        <v>1.4710000000000001</v>
+      </c>
+      <c r="J12" t="s">
+        <v>154</v>
+      </c>
+      <c r="K12">
+        <v>404</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12">
+        <v>404</v>
+      </c>
+      <c r="P12">
+        <v>1.84</v>
+      </c>
+      <c r="Q12">
+        <v>2.09</v>
+      </c>
+      <c r="R12">
+        <v>2.35</v>
+      </c>
+      <c r="S12">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>45152</v>
+      </c>
+      <c r="B13" s="84" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" s="40">
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="D13" s="40">
+        <v>4.07</v>
+      </c>
+      <c r="E13" s="40">
+        <v>6.26</v>
+      </c>
+      <c r="F13" s="40">
+        <v>3.42</v>
+      </c>
+      <c r="G13" s="40">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="H13" s="40">
+        <v>1.8540000000000001</v>
+      </c>
+      <c r="I13" s="40">
+        <v>1.7869999999999999</v>
+      </c>
+      <c r="J13" t="s">
+        <v>154</v>
+      </c>
+      <c r="K13">
+        <v>1.534</v>
+      </c>
+      <c r="M13">
+        <v>38</v>
+      </c>
+      <c r="N13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13">
+        <v>404</v>
+      </c>
+      <c r="P13">
+        <v>2.34</v>
+      </c>
+      <c r="Q13">
+        <v>2.89</v>
+      </c>
+      <c r="R13">
+        <v>404</v>
+      </c>
+      <c r="S13">
+        <v>3.61</v>
       </c>
     </row>
   </sheetData>
@@ -11548,12 +11787,12 @@
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
@@ -16034,12 +16273,12 @@
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>

--- a/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
+++ b/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="27" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="326">
   <si>
     <t>DATA</t>
   </si>
@@ -996,9 +996,6 @@
     <t>over 2,25</t>
   </si>
   <si>
-    <t>STAKE BET EX-OVER 2,5%</t>
-  </si>
-  <si>
     <t>NEW MEXICO vs SAN ANTONIO</t>
   </si>
   <si>
@@ -1009,6 +1006,21 @@
   </si>
   <si>
     <t>PALMEIRAS vs CRUZEIRO</t>
+  </si>
+  <si>
+    <t>ONE KNOXVILLE vs LEXINGTON</t>
+  </si>
+  <si>
+    <t>USA - USL LEAGUE ONE</t>
+  </si>
+  <si>
+    <t>SAN ANTONIO vs MONTEREY BAY</t>
+  </si>
+  <si>
+    <t>STAKE BET EX-OVER 2%</t>
+  </si>
+  <si>
+    <t>STAKE BET MATRIZ-FULL 2%</t>
   </si>
 </sst>
 </file>
@@ -1343,7 +1355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
@@ -1579,9 +1591,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2866,8 +2875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView topLeftCell="C78" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2935,11 +2944,11 @@
       </c>
       <c r="G2" s="28">
         <f>C2*D$103</f>
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="H2" s="28">
         <f t="shared" ref="H2:H33" si="0">G2-D$103</f>
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>182</v>
@@ -2969,11 +2978,11 @@
       </c>
       <c r="G3" s="28">
         <f>C3*D$103</f>
-        <v>4575</v>
+        <v>3660</v>
       </c>
       <c r="H3" s="28">
         <f t="shared" si="0"/>
-        <v>2075</v>
+        <v>1660</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>183</v>
@@ -3003,11 +3012,11 @@
       </c>
       <c r="G4" s="28">
         <f>C4*D$103</f>
-        <v>3900</v>
+        <v>3120</v>
       </c>
       <c r="H4" s="28">
         <f t="shared" si="0"/>
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>185</v>
@@ -3040,7 +3049,7 @@
       </c>
       <c r="H5" s="28">
         <f t="shared" si="0"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I5" s="69" t="s">
         <v>31</v>
@@ -3073,7 +3082,7 @@
       </c>
       <c r="H6" s="28">
         <f t="shared" si="0"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>32</v>
@@ -3106,7 +3115,7 @@
       </c>
       <c r="H7" s="28">
         <f t="shared" si="0"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>32</v>
@@ -3136,11 +3145,11 @@
       </c>
       <c r="G8" s="28">
         <f>C8*D$103</f>
-        <v>4575</v>
+        <v>3660</v>
       </c>
       <c r="H8" s="28">
         <f t="shared" si="0"/>
-        <v>2075</v>
+        <v>1660</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>183</v>
@@ -3170,11 +3179,11 @@
       </c>
       <c r="G9" s="28">
         <f>C9*D$103</f>
-        <v>4575</v>
+        <v>3660</v>
       </c>
       <c r="H9" s="28">
         <f t="shared" si="0"/>
-        <v>2075</v>
+        <v>1660</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>190</v>
@@ -3204,11 +3213,11 @@
       </c>
       <c r="G10" s="28">
         <f>C10*D$103</f>
-        <v>4200</v>
+        <v>3360</v>
       </c>
       <c r="H10" s="28">
         <f t="shared" si="0"/>
-        <v>1700</v>
+        <v>1360</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>178</v>
@@ -3238,11 +3247,11 @@
       </c>
       <c r="G11" s="28">
         <f>C11*D$103</f>
-        <v>3725</v>
+        <v>2980</v>
       </c>
       <c r="H11" s="28">
         <f t="shared" si="0"/>
-        <v>1225</v>
+        <v>980</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>32</v>
@@ -3275,7 +3284,7 @@
       </c>
       <c r="H12" s="28">
         <f t="shared" si="0"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>34</v>
@@ -3308,7 +3317,7 @@
       </c>
       <c r="H13" s="28">
         <f t="shared" si="0"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I13" s="69" t="s">
         <v>31</v>
@@ -3341,7 +3350,7 @@
       </c>
       <c r="H14" s="28">
         <f t="shared" si="0"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>189</v>
@@ -3371,11 +3380,11 @@
       </c>
       <c r="G15" s="28">
         <f>C15*D$103</f>
-        <v>4650</v>
+        <v>3720</v>
       </c>
       <c r="H15" s="28">
         <f t="shared" si="0"/>
-        <v>2150</v>
+        <v>1720</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>34</v>
@@ -3405,11 +3414,11 @@
       </c>
       <c r="G16" s="28">
         <f>C16*D$103</f>
-        <v>4700</v>
+        <v>3760</v>
       </c>
       <c r="H16" s="28">
         <f t="shared" si="0"/>
-        <v>2200</v>
+        <v>1760</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>205</v>
@@ -3442,7 +3451,7 @@
       </c>
       <c r="H17" s="28">
         <f t="shared" si="0"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>182</v>
@@ -3475,7 +3484,7 @@
       </c>
       <c r="H18" s="28">
         <f t="shared" si="0"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>189</v>
@@ -3505,11 +3514,11 @@
       </c>
       <c r="G19" s="28">
         <f>C19*D$103</f>
-        <v>3800</v>
+        <v>3040</v>
       </c>
       <c r="H19" s="28">
         <f t="shared" si="0"/>
-        <v>1300</v>
+        <v>1040</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>207</v>
@@ -3542,7 +3551,7 @@
       </c>
       <c r="H20" s="28">
         <f t="shared" si="0"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>185</v>
@@ -3572,11 +3581,11 @@
       </c>
       <c r="G21" s="28">
         <f>C21*D$103</f>
-        <v>4525</v>
+        <v>3620</v>
       </c>
       <c r="H21" s="28">
         <f t="shared" si="0"/>
-        <v>2025</v>
+        <v>1620</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>183</v>
@@ -3606,11 +3615,11 @@
       </c>
       <c r="G22" s="28">
         <f>C22*D$103</f>
-        <v>4675</v>
+        <v>3740</v>
       </c>
       <c r="H22" s="28">
         <f t="shared" si="0"/>
-        <v>2175</v>
+        <v>1740</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>208</v>
@@ -3640,11 +3649,11 @@
       </c>
       <c r="G23" s="28">
         <f>C23*D$103</f>
-        <v>4725</v>
+        <v>3780</v>
       </c>
       <c r="H23" s="28">
         <f t="shared" si="0"/>
-        <v>2225</v>
+        <v>1780</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>208</v>
@@ -3677,7 +3686,7 @@
       </c>
       <c r="H24" s="28">
         <f t="shared" si="0"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>186</v>
@@ -3707,11 +3716,11 @@
       </c>
       <c r="G25" s="28">
         <f t="shared" ref="G25:G34" si="1">C25*D$103</f>
-        <v>4375</v>
+        <v>3500</v>
       </c>
       <c r="H25" s="28">
         <f t="shared" si="0"/>
-        <v>1875</v>
+        <v>1500</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>209</v>
@@ -3741,11 +3750,11 @@
       </c>
       <c r="G26" s="28">
         <f t="shared" si="1"/>
-        <v>4625</v>
+        <v>3700</v>
       </c>
       <c r="H26" s="28">
         <f t="shared" si="0"/>
-        <v>2125</v>
+        <v>1700</v>
       </c>
       <c r="I26" s="69" t="s">
         <v>183</v>
@@ -3775,11 +3784,11 @@
       </c>
       <c r="G27" s="28">
         <f t="shared" si="1"/>
-        <v>3575</v>
+        <v>2860</v>
       </c>
       <c r="H27" s="28">
         <f t="shared" si="0"/>
-        <v>1075</v>
+        <v>860</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>211</v>
@@ -3809,11 +3818,11 @@
       </c>
       <c r="G28" s="28">
         <f t="shared" si="1"/>
-        <v>4350</v>
+        <v>3480</v>
       </c>
       <c r="H28" s="28">
         <f t="shared" si="0"/>
-        <v>1850</v>
+        <v>1480</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>32</v>
@@ -3843,11 +3852,11 @@
       </c>
       <c r="G29" s="28">
         <f t="shared" si="1"/>
-        <v>4350</v>
+        <v>3480</v>
       </c>
       <c r="H29" s="28">
         <f t="shared" si="0"/>
-        <v>1850</v>
+        <v>1480</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>212</v>
@@ -3877,11 +3886,11 @@
       </c>
       <c r="G30" s="28">
         <f t="shared" si="1"/>
-        <v>4600</v>
+        <v>3680</v>
       </c>
       <c r="H30" s="28">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>1680</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>34</v>
@@ -3911,11 +3920,11 @@
       </c>
       <c r="G31" s="28">
         <f t="shared" si="1"/>
-        <v>4400</v>
+        <v>3520</v>
       </c>
       <c r="H31" s="28">
         <f t="shared" si="0"/>
-        <v>1900</v>
+        <v>1520</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>209</v>
@@ -3945,11 +3954,11 @@
       </c>
       <c r="G32" s="28">
         <f t="shared" si="1"/>
-        <v>4150</v>
+        <v>3320</v>
       </c>
       <c r="H32" s="28">
         <f t="shared" si="0"/>
-        <v>1650</v>
+        <v>1320</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>31</v>
@@ -3979,11 +3988,11 @@
       </c>
       <c r="G33" s="28">
         <f t="shared" si="1"/>
-        <v>4475</v>
+        <v>3580</v>
       </c>
       <c r="H33" s="28">
         <f t="shared" si="0"/>
-        <v>1975</v>
+        <v>1580</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>31</v>
@@ -4013,11 +4022,11 @@
       </c>
       <c r="G34" s="28">
         <f t="shared" si="1"/>
-        <v>4350</v>
+        <v>3480</v>
       </c>
       <c r="H34" s="28">
         <f t="shared" ref="H34:H65" si="2">G34-D$103</f>
-        <v>1850</v>
+        <v>1480</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>208</v>
@@ -4050,7 +4059,7 @@
       </c>
       <c r="H35" s="28">
         <f t="shared" si="2"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I35" s="69" t="s">
         <v>212</v>
@@ -4080,11 +4089,11 @@
       </c>
       <c r="G36" s="28">
         <f>C36*D$103</f>
-        <v>4450</v>
+        <v>3560</v>
       </c>
       <c r="H36" s="28">
         <f t="shared" si="2"/>
-        <v>1950</v>
+        <v>1560</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>208</v>
@@ -4117,7 +4126,7 @@
       </c>
       <c r="H37" s="28">
         <f t="shared" si="2"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>185</v>
@@ -4147,11 +4156,11 @@
       </c>
       <c r="G38" s="28">
         <f>C38*D$103</f>
-        <v>4150</v>
+        <v>3320</v>
       </c>
       <c r="H38" s="28">
         <f t="shared" si="2"/>
-        <v>1650</v>
+        <v>1320</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>209</v>
@@ -4181,11 +4190,11 @@
       </c>
       <c r="G39" s="28">
         <f>C39*D$103</f>
-        <v>3900</v>
+        <v>3120</v>
       </c>
       <c r="H39" s="28">
         <f t="shared" si="2"/>
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>34</v>
@@ -4218,7 +4227,7 @@
       </c>
       <c r="H40" s="28">
         <f t="shared" si="2"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>178</v>
@@ -4248,11 +4257,11 @@
       </c>
       <c r="G41" s="28">
         <f>C41*D$103</f>
-        <v>4800</v>
+        <v>3840</v>
       </c>
       <c r="H41" s="28">
         <f t="shared" si="2"/>
-        <v>2300</v>
+        <v>1840</v>
       </c>
       <c r="I41" s="45" t="s">
         <v>184</v>
@@ -4285,7 +4294,7 @@
       </c>
       <c r="H42" s="28">
         <f t="shared" si="2"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I42" s="69" t="s">
         <v>32</v>
@@ -4315,11 +4324,11 @@
       </c>
       <c r="G43" s="28">
         <f>C43*D$103</f>
-        <v>4275</v>
+        <v>3420</v>
       </c>
       <c r="H43" s="28">
         <f t="shared" si="2"/>
-        <v>1775</v>
+        <v>1420</v>
       </c>
       <c r="I43" s="69" t="s">
         <v>32</v>
@@ -4352,7 +4361,7 @@
       </c>
       <c r="H44" s="28">
         <f t="shared" si="2"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I44" s="69" t="s">
         <v>186</v>
@@ -4382,11 +4391,11 @@
       </c>
       <c r="G45" s="28">
         <f>C45*D$103</f>
-        <v>4125</v>
+        <v>3300</v>
       </c>
       <c r="H45" s="28">
         <f t="shared" si="2"/>
-        <v>1625</v>
+        <v>1300</v>
       </c>
       <c r="I45" s="69" t="s">
         <v>186</v>
@@ -4416,11 +4425,11 @@
       </c>
       <c r="G46" s="28">
         <f>C46*D$103</f>
-        <v>4275</v>
+        <v>3420</v>
       </c>
       <c r="H46" s="28">
         <f t="shared" si="2"/>
-        <v>1775</v>
+        <v>1420</v>
       </c>
       <c r="I46" s="69" t="s">
         <v>183</v>
@@ -4453,7 +4462,7 @@
       </c>
       <c r="H47" s="28">
         <f t="shared" si="2"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I47" s="69" t="s">
         <v>185</v>
@@ -4483,11 +4492,11 @@
       </c>
       <c r="G48" s="28">
         <f>C48*D$103</f>
-        <v>3650</v>
+        <v>2920</v>
       </c>
       <c r="H48" s="28">
         <f t="shared" si="2"/>
-        <v>1150</v>
+        <v>920</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>31</v>
@@ -4520,7 +4529,7 @@
       </c>
       <c r="H49" s="28">
         <f t="shared" si="2"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>178</v>
@@ -4553,7 +4562,7 @@
       </c>
       <c r="H50" s="28">
         <f t="shared" si="2"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>186</v>
@@ -4583,11 +4592,11 @@
       </c>
       <c r="G51" s="28">
         <f>C51*D$103</f>
-        <v>4525</v>
+        <v>3620</v>
       </c>
       <c r="H51" s="28">
         <f t="shared" si="2"/>
-        <v>2025</v>
+        <v>1620</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>211</v>
@@ -4617,11 +4626,11 @@
       </c>
       <c r="G52" s="28">
         <f>C52*D$103</f>
-        <v>4250</v>
+        <v>3400</v>
       </c>
       <c r="H52" s="28">
         <f t="shared" si="2"/>
-        <v>1750</v>
+        <v>1400</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>182</v>
@@ -4654,7 +4663,7 @@
       </c>
       <c r="H53" s="28">
         <f t="shared" si="2"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>183</v>
@@ -4684,11 +4693,11 @@
       </c>
       <c r="G54" s="28">
         <f t="shared" ref="G54:G59" si="3">C54*D$103</f>
-        <v>3950</v>
+        <v>3160</v>
       </c>
       <c r="H54" s="28">
         <f t="shared" si="2"/>
-        <v>1450</v>
+        <v>1160</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>179</v>
@@ -4718,11 +4727,11 @@
       </c>
       <c r="G55" s="28">
         <f t="shared" si="3"/>
-        <v>4200</v>
+        <v>3360</v>
       </c>
       <c r="H55" s="28">
         <f t="shared" si="2"/>
-        <v>1700</v>
+        <v>1360</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>208</v>
@@ -4752,11 +4761,11 @@
       </c>
       <c r="G56" s="28">
         <f t="shared" si="3"/>
-        <v>4600</v>
+        <v>3680</v>
       </c>
       <c r="H56" s="28">
         <f t="shared" si="2"/>
-        <v>2100</v>
+        <v>1680</v>
       </c>
       <c r="I56" s="69" t="s">
         <v>208</v>
@@ -4786,11 +4795,11 @@
       </c>
       <c r="G57" s="28">
         <f t="shared" si="3"/>
-        <v>4350</v>
+        <v>3480</v>
       </c>
       <c r="H57" s="28">
         <f t="shared" si="2"/>
-        <v>1850</v>
+        <v>1480</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>184</v>
@@ -4820,11 +4829,11 @@
       </c>
       <c r="G58" s="28">
         <f t="shared" si="3"/>
-        <v>4625</v>
+        <v>3700</v>
       </c>
       <c r="H58" s="28">
         <f t="shared" si="2"/>
-        <v>2125</v>
+        <v>1700</v>
       </c>
       <c r="I58" s="69" t="s">
         <v>189</v>
@@ -4854,11 +4863,11 @@
       </c>
       <c r="G59" s="28">
         <f t="shared" si="3"/>
-        <v>4825</v>
+        <v>3860</v>
       </c>
       <c r="H59" s="28">
         <f t="shared" si="2"/>
-        <v>2325</v>
+        <v>1860</v>
       </c>
       <c r="I59" s="69" t="s">
         <v>208</v>
@@ -4891,7 +4900,7 @@
       </c>
       <c r="H60" s="28">
         <f t="shared" si="2"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>32</v>
@@ -4921,11 +4930,11 @@
       </c>
       <c r="G61" s="28">
         <f>C61*D$103</f>
-        <v>4275</v>
+        <v>3420</v>
       </c>
       <c r="H61" s="28">
         <f t="shared" si="2"/>
-        <v>1775</v>
+        <v>1420</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>208</v>
@@ -4958,7 +4967,7 @@
       </c>
       <c r="H62" s="28">
         <f t="shared" si="2"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>32</v>
@@ -4988,11 +4997,11 @@
       </c>
       <c r="G63" s="28">
         <f>C63*D$103</f>
-        <v>4350</v>
+        <v>3480</v>
       </c>
       <c r="H63" s="28">
         <f t="shared" si="2"/>
-        <v>1850</v>
+        <v>1480</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>34</v>
@@ -5022,11 +5031,11 @@
       </c>
       <c r="G64" s="28">
         <f>C64*D$103</f>
-        <v>4025.0000000000005</v>
+        <v>3220</v>
       </c>
       <c r="H64" s="28">
         <f t="shared" si="2"/>
-        <v>1525.0000000000005</v>
+        <v>1220</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>189</v>
@@ -5059,7 +5068,7 @@
       </c>
       <c r="H65" s="28">
         <f t="shared" si="2"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>186</v>
@@ -5089,11 +5098,11 @@
       </c>
       <c r="G66" s="28">
         <f>C66*D$103</f>
-        <v>4400</v>
+        <v>3520</v>
       </c>
       <c r="H66" s="28">
         <f t="shared" ref="H66:H74" si="4">G66-D$103</f>
-        <v>1900</v>
+        <v>1520</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>33</v>
@@ -5126,7 +5135,7 @@
       </c>
       <c r="H67" s="28">
         <f t="shared" si="4"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>185</v>
@@ -5156,11 +5165,11 @@
       </c>
       <c r="G68" s="28">
         <f>C68*D$103</f>
-        <v>4775</v>
+        <v>3820</v>
       </c>
       <c r="H68" s="28">
         <f t="shared" si="4"/>
-        <v>2275</v>
+        <v>1820</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>31</v>
@@ -5190,11 +5199,11 @@
       </c>
       <c r="G69" s="28">
         <f>C69*D$103</f>
-        <v>4150</v>
+        <v>3320</v>
       </c>
       <c r="H69" s="28">
         <f t="shared" si="4"/>
-        <v>1650</v>
+        <v>1320</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>184</v>
@@ -5224,11 +5233,11 @@
       </c>
       <c r="G70" s="28">
         <f>C70*D$103</f>
-        <v>4575</v>
+        <v>3660</v>
       </c>
       <c r="H70" s="28">
         <f t="shared" si="4"/>
-        <v>2075</v>
+        <v>1660</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>294</v>
@@ -5258,11 +5267,11 @@
       </c>
       <c r="G71" s="28">
         <f>C71*D$103</f>
-        <v>3550</v>
+        <v>2840</v>
       </c>
       <c r="H71" s="28">
         <f t="shared" si="4"/>
-        <v>1050</v>
+        <v>840</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>184</v>
@@ -5295,7 +5304,7 @@
       </c>
       <c r="H72" s="28">
         <f t="shared" si="4"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>32</v>
@@ -5325,11 +5334,11 @@
       </c>
       <c r="G73" s="28">
         <f>C73*D$103</f>
-        <v>4575</v>
+        <v>3660</v>
       </c>
       <c r="H73" s="28">
         <f t="shared" si="4"/>
-        <v>2075</v>
+        <v>1660</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>186</v>
@@ -5359,11 +5368,11 @@
       </c>
       <c r="G74" s="28">
         <f>C74*D$103</f>
-        <v>3350</v>
+        <v>2680</v>
       </c>
       <c r="H74" s="28">
         <f t="shared" si="4"/>
-        <v>850</v>
+        <v>680</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>34</v>
@@ -5396,7 +5405,7 @@
       </c>
       <c r="H75" s="28">
         <f>(G75-D$103)/2</f>
-        <v>-1250</v>
+        <v>-1000</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>186</v>
@@ -5429,7 +5438,7 @@
       </c>
       <c r="H76" s="28">
         <f t="shared" ref="H76:H83" si="5">G76-D$103</f>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>32</v>
@@ -5459,11 +5468,11 @@
       </c>
       <c r="G77" s="28">
         <f>C77*D$103</f>
-        <v>3275</v>
+        <v>2620</v>
       </c>
       <c r="H77" s="28">
         <f t="shared" si="5"/>
-        <v>775</v>
+        <v>620</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>34</v>
@@ -5493,11 +5502,11 @@
       </c>
       <c r="G78" s="28">
         <f>C78*D$103</f>
-        <v>4400</v>
+        <v>3520</v>
       </c>
       <c r="H78" s="28">
         <f t="shared" si="5"/>
-        <v>1900</v>
+        <v>1520</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>31</v>
@@ -5527,11 +5536,11 @@
       </c>
       <c r="G79" s="28">
         <f>C79*D$103</f>
-        <v>4250</v>
+        <v>3400</v>
       </c>
       <c r="H79" s="28">
         <f t="shared" si="5"/>
-        <v>1750</v>
+        <v>1400</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>32</v>
@@ -5564,7 +5573,7 @@
       </c>
       <c r="H80" s="28">
         <f t="shared" si="5"/>
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="I80" s="80" t="s">
         <v>189</v>
@@ -5594,11 +5603,11 @@
       </c>
       <c r="G81" s="28">
         <f>C81*D$103</f>
-        <v>4200</v>
+        <v>3360</v>
       </c>
       <c r="H81" s="28">
         <f t="shared" si="5"/>
-        <v>1700</v>
+        <v>1360</v>
       </c>
       <c r="I81" s="80" t="s">
         <v>188</v>
@@ -5628,11 +5637,11 @@
       </c>
       <c r="G82" s="28">
         <f>C82*D$103</f>
-        <v>4730</v>
+        <v>3784</v>
       </c>
       <c r="H82" s="28">
         <f t="shared" si="5"/>
-        <v>2230</v>
+        <v>1784</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>34</v>
@@ -5662,11 +5671,11 @@
       </c>
       <c r="G83" s="28">
         <f>C83*D$103</f>
-        <v>4069.9999999999995</v>
+        <v>3256</v>
       </c>
       <c r="H83" s="28">
         <f t="shared" si="5"/>
-        <v>1569.9999999999995</v>
+        <v>1256</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>33</v>
@@ -5824,11 +5833,11 @@
       </c>
       <c r="I93" s="59">
         <f t="shared" ref="I93:I109" si="7">SUMIFS($H$2:$H$90,$J$2:$J$90,H93)</f>
-        <v>4250</v>
+        <v>3400</v>
       </c>
       <c r="J93" s="66">
         <f t="shared" ref="J93:J109" si="8">I93/D$100*100</f>
-        <v>4.25</v>
+        <v>3.4000000000000004</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5880,11 +5889,11 @@
       </c>
       <c r="I95" s="59">
         <f t="shared" si="7"/>
-        <v>-50</v>
+        <v>-40</v>
       </c>
       <c r="J95" s="54">
         <f t="shared" si="8"/>
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5951,7 +5960,7 @@
       <c r="C98" s="6"/>
       <c r="D98" s="23">
         <f>D105/1</f>
-        <v>33.024999999999999</v>
+        <v>26.419999999999998</v>
       </c>
       <c r="E98" s="69"/>
       <c r="F98" s="69"/>
@@ -5964,11 +5973,11 @@
       </c>
       <c r="I98" s="59">
         <f t="shared" si="7"/>
-        <v>5750</v>
+        <v>4600</v>
       </c>
       <c r="J98" s="66">
         <f t="shared" si="8"/>
-        <v>5.75</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6014,11 +6023,11 @@
       </c>
       <c r="I100" s="59">
         <f t="shared" si="7"/>
-        <v>2130</v>
+        <v>1704</v>
       </c>
       <c r="J100" s="54">
         <f t="shared" si="8"/>
-        <v>2.13</v>
+        <v>1.704</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6042,11 +6051,11 @@
       </c>
       <c r="I101" s="59">
         <f t="shared" si="7"/>
-        <v>3044.9999999999995</v>
+        <v>2436</v>
       </c>
       <c r="J101" s="54">
         <f t="shared" si="8"/>
-        <v>3.0449999999999995</v>
+        <v>2.4359999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6080,12 +6089,12 @@
     <row r="103" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
       <c r="B103" s="6" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="63">
-        <f>D101*2.5</f>
-        <v>2500</v>
+        <f>D101*2</f>
+        <v>2000</v>
       </c>
       <c r="E103" s="69"/>
       <c r="F103" s="69"/>
@@ -6098,11 +6107,11 @@
       </c>
       <c r="I103" s="59">
         <f t="shared" si="7"/>
-        <v>-2900</v>
+        <v>-2320</v>
       </c>
       <c r="J103" s="54">
         <f t="shared" si="8"/>
-        <v>-2.9000000000000004</v>
+        <v>-2.3199999999999998</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6113,7 +6122,7 @@
       <c r="C104" s="6"/>
       <c r="D104" s="11">
         <f>SUM(H2:H90)</f>
-        <v>33025</v>
+        <v>26420</v>
       </c>
       <c r="E104" s="69"/>
       <c r="F104" s="69"/>
@@ -6126,11 +6135,11 @@
       </c>
       <c r="I104" s="59">
         <f t="shared" si="7"/>
-        <v>1850</v>
+        <v>1480</v>
       </c>
       <c r="J104" s="54">
         <f t="shared" si="8"/>
-        <v>1.8499999999999999</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6141,7 +6150,7 @@
       <c r="C105" s="6"/>
       <c r="D105" s="6">
         <f>D104/D100*100</f>
-        <v>33.024999999999999</v>
+        <v>26.419999999999998</v>
       </c>
       <c r="E105" s="69"/>
       <c r="F105" s="69"/>
@@ -6154,11 +6163,11 @@
       </c>
       <c r="I105" s="59">
         <f t="shared" si="7"/>
-        <v>2625</v>
+        <v>2100</v>
       </c>
       <c r="J105" s="54">
         <f t="shared" si="8"/>
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6167,7 +6176,7 @@
       <c r="C106" s="6"/>
       <c r="D106" s="11">
         <f>D105/7</f>
-        <v>4.7178571428571425</v>
+        <v>3.774285714285714</v>
       </c>
       <c r="E106" s="69"/>
       <c r="F106" s="69"/>
@@ -6226,11 +6235,11 @@
       </c>
       <c r="I108" s="59">
         <f t="shared" si="7"/>
-        <v>16325</v>
+        <v>13060</v>
       </c>
       <c r="J108" s="54">
         <f t="shared" si="8"/>
-        <v>16.324999999999999</v>
+        <v>13.059999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8160,7 +8169,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection sqref="A1:J38"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9320,8 +9329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10312,7 +10321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="J4" sqref="A4:J4"/>
     </sheetView>
   </sheetViews>
@@ -10784,20 +10793,20 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="144" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="144.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10860,7 +10869,7 @@
       <c r="A2" s="5">
         <v>45142</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>111</v>
       </c>
       <c r="C2">
@@ -10896,7 +10905,7 @@
       <c r="M2">
         <v>38</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="O2">
@@ -10919,7 +10928,7 @@
       <c r="A3" s="5">
         <v>45144</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C3">
@@ -10952,7 +10961,7 @@
       <c r="M3">
         <v>15</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="O3">
@@ -10975,7 +10984,7 @@
       <c r="A4" s="5">
         <v>45143</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>113</v>
       </c>
       <c r="C4">
@@ -11008,7 +11017,7 @@
       <c r="M4">
         <v>9</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="6" t="s">
         <v>114</v>
       </c>
       <c r="O4">
@@ -11031,7 +11040,7 @@
       <c r="A5" s="5">
         <v>45144</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C5">
@@ -11064,7 +11073,7 @@
       <c r="M5">
         <v>56</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="6" t="s">
         <v>117</v>
       </c>
       <c r="O5">
@@ -11087,7 +11096,7 @@
       <c r="A6" s="5">
         <v>45144</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C6">
@@ -11120,7 +11129,7 @@
       <c r="M6">
         <v>26</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="6" t="s">
         <v>117</v>
       </c>
       <c r="O6">
@@ -11143,7 +11152,7 @@
       <c r="A7" s="5">
         <v>45144</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C7">
@@ -11176,7 +11185,7 @@
       <c r="M7">
         <v>49</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="6" t="s">
         <v>114</v>
       </c>
       <c r="O7">
@@ -11199,7 +11208,7 @@
       <c r="A8" s="5">
         <v>45144</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>119</v>
       </c>
       <c r="C8">
@@ -11232,7 +11241,7 @@
       <c r="M8">
         <v>43</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="6" t="s">
         <v>114</v>
       </c>
       <c r="O8">
@@ -11255,7 +11264,7 @@
       <c r="A9" s="5">
         <v>45144</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>213</v>
       </c>
       <c r="C9">
@@ -11288,7 +11297,7 @@
       <c r="M9">
         <v>21</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="6" t="s">
         <v>26</v>
       </c>
       <c r="O9">
@@ -11311,8 +11320,8 @@
       <c r="A10" s="5">
         <v>45151</v>
       </c>
-      <c r="B10" t="s">
-        <v>318</v>
+      <c r="B10" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="C10">
         <v>2.71</v>
@@ -11344,7 +11353,7 @@
       <c r="M10">
         <v>30</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="6" t="s">
         <v>26</v>
       </c>
       <c r="O10">
@@ -11367,8 +11376,8 @@
       <c r="A11" s="5">
         <v>45151</v>
       </c>
-      <c r="B11" t="s">
-        <v>319</v>
+      <c r="B11" s="6" t="s">
+        <v>318</v>
       </c>
       <c r="C11">
         <v>2.06</v>
@@ -11400,7 +11409,7 @@
       <c r="M11">
         <v>23</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="6" t="s">
         <v>26</v>
       </c>
       <c r="O11">
@@ -11423,8 +11432,8 @@
       <c r="A12" s="5">
         <v>45151</v>
       </c>
-      <c r="B12" t="s">
-        <v>320</v>
+      <c r="B12" s="6" t="s">
+        <v>319</v>
       </c>
       <c r="C12">
         <v>1.877</v>
@@ -11456,7 +11465,7 @@
       <c r="M12">
         <v>4</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="6" t="s">
         <v>26</v>
       </c>
       <c r="O12">
@@ -11479,8 +11488,8 @@
       <c r="A13" s="5">
         <v>45152</v>
       </c>
-      <c r="B13" s="84" t="s">
-        <v>321</v>
+      <c r="B13" s="9" t="s">
+        <v>320</v>
       </c>
       <c r="C13" s="40">
         <v>1.5980000000000001</v>
@@ -11512,7 +11521,7 @@
       <c r="M13">
         <v>38</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="6" t="s">
         <v>117</v>
       </c>
       <c r="O13">
@@ -11529,6 +11538,118 @@
       </c>
       <c r="S13">
         <v>3.61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>45157</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C14" s="40">
+        <v>404</v>
+      </c>
+      <c r="D14" s="40">
+        <v>404</v>
+      </c>
+      <c r="E14" s="40">
+        <v>404</v>
+      </c>
+      <c r="F14" s="40">
+        <v>404</v>
+      </c>
+      <c r="G14" s="40">
+        <v>404</v>
+      </c>
+      <c r="H14" s="40">
+        <v>404</v>
+      </c>
+      <c r="I14" s="40">
+        <v>404</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14">
+        <v>404</v>
+      </c>
+      <c r="M14">
+        <v>33</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="O14">
+        <v>404</v>
+      </c>
+      <c r="P14">
+        <v>404</v>
+      </c>
+      <c r="Q14">
+        <v>404</v>
+      </c>
+      <c r="R14">
+        <v>404</v>
+      </c>
+      <c r="S14">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>45158</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C15" s="40">
+        <v>1.427</v>
+      </c>
+      <c r="D15" s="40">
+        <v>4.74</v>
+      </c>
+      <c r="E15" s="40">
+        <v>6.57</v>
+      </c>
+      <c r="F15" s="40">
+        <v>404</v>
+      </c>
+      <c r="G15" s="40">
+        <v>1.6839999999999999</v>
+      </c>
+      <c r="H15" s="40">
+        <v>2.16</v>
+      </c>
+      <c r="I15" s="40">
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15">
+        <v>404</v>
+      </c>
+      <c r="M15">
+        <v>18</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15">
+        <v>404</v>
+      </c>
+      <c r="P15">
+        <v>1.869</v>
+      </c>
+      <c r="Q15">
+        <v>2.14</v>
+      </c>
+      <c r="R15">
+        <v>2.4</v>
+      </c>
+      <c r="S15">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -11546,8 +11667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection sqref="A1:J33"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11616,11 +11737,11 @@
       </c>
       <c r="G2" s="28">
         <f>C2*D$25</f>
-        <v>1188.4454399999997</v>
+        <v>625.49759999999992</v>
       </c>
       <c r="H2" s="28">
         <f>G2-D$25</f>
-        <v>481.03743999999983</v>
+        <v>253.17759999999993</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" t="s">
@@ -11648,11 +11769,11 @@
       </c>
       <c r="G3" s="28">
         <f>C3*D$25</f>
-        <v>1202.5935999999997</v>
+        <v>632.94399999999996</v>
       </c>
       <c r="H3" s="28">
         <f>G3-D$25</f>
-        <v>495.18559999999979</v>
+        <v>260.62399999999997</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" t="s">
@@ -11787,12 +11908,12 @@
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
@@ -11970,8 +12091,8 @@
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="27">
-        <f>D24*3.8</f>
-        <v>707.4079999999999</v>
+        <f>D24*2</f>
+        <v>372.32</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="19"/>
@@ -11987,7 +12108,7 @@
       <c r="C26" s="6"/>
       <c r="D26" s="28">
         <f>SUM(H2:H12)</f>
-        <v>976.22303999999963</v>
+        <v>513.80159999999989</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="19"/>
@@ -11998,12 +12119,12 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="29" t="s">
-        <v>176</v>
+        <v>325</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="13">
         <f>D26/D22*100</f>
-        <v>5.243999999999998</v>
+        <v>2.7599999999999993</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="19"/>
@@ -16273,12 +16394,12 @@
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
@@ -19044,8 +19165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J22"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19111,11 +19232,11 @@
       </c>
       <c r="G2" s="28">
         <f>C2*D$35</f>
-        <v>1329.9270399999998</v>
+        <v>699.96159999999998</v>
       </c>
       <c r="H2" s="28">
         <f t="shared" ref="H2:H9" si="0">G2-D$35</f>
-        <v>622.5190399999999</v>
+        <v>327.64159999999998</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>205</v>
@@ -19148,7 +19269,7 @@
       </c>
       <c r="H3" s="28">
         <f t="shared" si="0"/>
-        <v>-707.4079999999999</v>
+        <v>-372.32</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>182</v>
@@ -19181,7 +19302,7 @@
       </c>
       <c r="H4" s="28">
         <f t="shared" si="0"/>
-        <v>-707.4079999999999</v>
+        <v>-372.32</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>189</v>
@@ -19211,11 +19332,11 @@
       </c>
       <c r="G5" s="28">
         <f>C5*D$35</f>
-        <v>1075.2601599999998</v>
+        <v>565.92639999999994</v>
       </c>
       <c r="H5" s="28">
         <f t="shared" si="0"/>
-        <v>367.85215999999991</v>
+        <v>193.60639999999995</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>207</v>
@@ -19248,7 +19369,7 @@
       </c>
       <c r="H6" s="28">
         <f t="shared" si="0"/>
-        <v>-707.4079999999999</v>
+        <v>-372.32</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>185</v>
@@ -19278,11 +19399,11 @@
       </c>
       <c r="G7" s="28">
         <f>C7*D$35</f>
-        <v>1280.4084799999998</v>
+        <v>673.89919999999995</v>
       </c>
       <c r="H7" s="28">
         <f t="shared" si="0"/>
-        <v>573.00047999999992</v>
+        <v>301.57919999999996</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>183</v>
@@ -19312,11 +19433,11 @@
       </c>
       <c r="G8" s="28">
         <f>C8*D$35</f>
-        <v>1322.8529599999999</v>
+        <v>696.23840000000007</v>
       </c>
       <c r="H8" s="28">
         <f t="shared" si="0"/>
-        <v>615.44496000000004</v>
+        <v>323.91840000000008</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>208</v>
@@ -19346,11 +19467,11 @@
       </c>
       <c r="G9" s="28">
         <f>C9*D$35</f>
-        <v>1337.0011199999997</v>
+        <v>703.6848</v>
       </c>
       <c r="H9" s="28">
         <f t="shared" si="0"/>
-        <v>629.59311999999977</v>
+        <v>331.3648</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>208</v>
@@ -19412,11 +19533,11 @@
       </c>
       <c r="G11" s="28">
         <f>C11*D$35</f>
-        <v>1237.9639999999999</v>
+        <v>651.55999999999995</v>
       </c>
       <c r="H11" s="28">
         <f t="shared" ref="H11:H22" si="1">G11-D$35</f>
-        <v>530.55600000000004</v>
+        <v>279.23999999999995</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>209</v>
@@ -19446,11 +19567,11 @@
       </c>
       <c r="G12" s="28">
         <f>C12*D$35</f>
-        <v>1308.7048</v>
+        <v>688.79200000000003</v>
       </c>
       <c r="H12" s="28">
         <f t="shared" si="1"/>
-        <v>601.29680000000008</v>
+        <v>316.47200000000004</v>
       </c>
       <c r="I12" s="69" t="s">
         <v>183</v>
@@ -19480,11 +19601,11 @@
       </c>
       <c r="G13" s="28">
         <f t="shared" ref="G13:G20" si="2">C13*D$35</f>
-        <v>1011.5934399999998</v>
+        <v>532.41759999999999</v>
       </c>
       <c r="H13" s="28">
         <f t="shared" si="1"/>
-        <v>304.18543999999986</v>
+        <v>160.0976</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>211</v>
@@ -19514,11 +19635,11 @@
       </c>
       <c r="G14" s="28">
         <f t="shared" si="2"/>
-        <v>1230.8899199999998</v>
+        <v>647.83680000000004</v>
       </c>
       <c r="H14" s="28">
         <f t="shared" si="1"/>
-        <v>523.48191999999995</v>
+        <v>275.51680000000005</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>32</v>
@@ -19548,11 +19669,11 @@
       </c>
       <c r="G15" s="28">
         <f t="shared" si="2"/>
-        <v>1230.8899199999998</v>
+        <v>647.83680000000004</v>
       </c>
       <c r="H15" s="28">
         <f t="shared" si="1"/>
-        <v>523.48191999999995</v>
+        <v>275.51680000000005</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>212</v>
@@ -19582,11 +19703,11 @@
       </c>
       <c r="G16" s="28">
         <f t="shared" si="2"/>
-        <v>1301.6307199999999</v>
+        <v>685.06880000000001</v>
       </c>
       <c r="H16" s="28">
         <f t="shared" si="1"/>
-        <v>594.22271999999998</v>
+        <v>312.74880000000002</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>34</v>
@@ -19616,11 +19737,11 @@
       </c>
       <c r="G17" s="28">
         <f t="shared" si="2"/>
-        <v>1245.0380799999998</v>
+        <v>655.28319999999997</v>
       </c>
       <c r="H17" s="28">
         <f t="shared" si="1"/>
-        <v>537.63007999999991</v>
+        <v>282.96319999999997</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>209</v>
@@ -19650,11 +19771,11 @@
       </c>
       <c r="G18" s="28">
         <f t="shared" si="2"/>
-        <v>1174.2972799999998</v>
+        <v>618.05119999999999</v>
       </c>
       <c r="H18" s="28">
         <f t="shared" si="1"/>
-        <v>466.88927999999987</v>
+        <v>245.7312</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>31</v>
@@ -19684,11 +19805,11 @@
       </c>
       <c r="G19" s="28">
         <f t="shared" si="2"/>
-        <v>1266.2603199999999</v>
+        <v>666.45280000000002</v>
       </c>
       <c r="H19" s="28">
         <f t="shared" si="1"/>
-        <v>558.85231999999996</v>
+        <v>294.13280000000003</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>31</v>
@@ -19718,11 +19839,11 @@
       </c>
       <c r="G20" s="28">
         <f t="shared" si="2"/>
-        <v>1230.8899199999998</v>
+        <v>647.83680000000004</v>
       </c>
       <c r="H20" s="28">
         <f t="shared" si="1"/>
-        <v>523.48191999999995</v>
+        <v>275.51680000000005</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>208</v>
@@ -19755,7 +19876,7 @@
       </c>
       <c r="H21" s="28">
         <f t="shared" si="1"/>
-        <v>-707.4079999999999</v>
+        <v>-372.32</v>
       </c>
       <c r="I21" s="69" t="s">
         <v>212</v>
@@ -19785,11 +19906,11 @@
       </c>
       <c r="G22" s="28">
         <f>C22*D$35</f>
-        <v>1259.1862399999998</v>
+        <v>662.7296</v>
       </c>
       <c r="H22" s="28">
         <f t="shared" si="1"/>
-        <v>551.77823999999987</v>
+        <v>290.40960000000001</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>208</v>
@@ -19985,8 +20106,8 @@
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="27">
-        <f>D34*3.8</f>
-        <v>707.4079999999999</v>
+        <f>D34*2</f>
+        <v>372.32</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="19"/>
@@ -20002,7 +20123,7 @@
       <c r="C36" s="6"/>
       <c r="D36" s="28">
         <f>SUM(H2:H23)</f>
-        <v>5694.634399999999</v>
+        <v>2997.1759999999999</v>
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="19"/>
@@ -20018,7 +20139,7 @@
       <c r="C37" s="6"/>
       <c r="D37" s="47">
         <f>D36/D32*100</f>
-        <v>30.589999999999996</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E37" s="47"/>
       <c r="F37" s="19"/>
@@ -21206,8 +21327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24201,8 +24322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection sqref="A1:J38"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24268,11 +24389,11 @@
       </c>
       <c r="G2" s="28">
         <f>C2*D$32</f>
-        <v>1209.6676799999998</v>
+        <v>636.66719999999998</v>
       </c>
       <c r="H2" s="28">
         <f t="shared" ref="H2:H17" si="0">G2-D$32</f>
-        <v>502.25967999999989</v>
+        <v>264.34719999999999</v>
       </c>
       <c r="I2" s="69" t="s">
         <v>183</v>
@@ -24305,7 +24426,7 @@
       </c>
       <c r="H3" s="28">
         <f t="shared" si="0"/>
-        <v>-707.4079999999999</v>
+        <v>-372.32</v>
       </c>
       <c r="I3" s="69" t="s">
         <v>185</v>
@@ -24335,11 +24456,11 @@
       </c>
       <c r="G4" s="28">
         <f>C4*D$32</f>
-        <v>1032.8156799999999</v>
+        <v>543.58719999999994</v>
       </c>
       <c r="H4" s="28">
         <f t="shared" si="0"/>
-        <v>325.40768000000003</v>
+        <v>171.26719999999995</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>31</v>
@@ -24372,7 +24493,7 @@
       </c>
       <c r="H5" s="28">
         <f t="shared" si="0"/>
-        <v>-707.4079999999999</v>
+        <v>-372.32</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>178</v>
@@ -24405,7 +24526,7 @@
       </c>
       <c r="H6" s="28">
         <f t="shared" si="0"/>
-        <v>-707.4079999999999</v>
+        <v>-372.32</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>186</v>
@@ -24435,11 +24556,11 @@
       </c>
       <c r="G7" s="28">
         <f>C7*D$32</f>
-        <v>1280.4084799999998</v>
+        <v>673.89919999999995</v>
       </c>
       <c r="H7" s="28">
         <f t="shared" si="0"/>
-        <v>573.00047999999992</v>
+        <v>301.57919999999996</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>211</v>
@@ -24469,11 +24590,11 @@
       </c>
       <c r="G8" s="28">
         <f>C8*D$32</f>
-        <v>1202.5935999999997</v>
+        <v>632.94399999999996</v>
       </c>
       <c r="H8" s="28">
         <f t="shared" si="0"/>
-        <v>495.18559999999979</v>
+        <v>260.62399999999997</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>182</v>
@@ -24506,7 +24627,7 @@
       </c>
       <c r="H9" s="28">
         <f t="shared" si="0"/>
-        <v>-707.4079999999999</v>
+        <v>-372.32</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>183</v>
@@ -24536,11 +24657,11 @@
       </c>
       <c r="G10" s="28">
         <f t="shared" ref="G10:G15" si="1">C10*D$32</f>
-        <v>1117.7046399999999</v>
+        <v>588.26560000000006</v>
       </c>
       <c r="H10" s="28">
         <f t="shared" si="0"/>
-        <v>410.29664000000002</v>
+        <v>215.94560000000007</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>179</v>
@@ -24570,11 +24691,11 @@
       </c>
       <c r="G11" s="28">
         <f t="shared" si="1"/>
-        <v>1188.4454399999997</v>
+        <v>625.49759999999992</v>
       </c>
       <c r="H11" s="28">
         <f t="shared" si="0"/>
-        <v>481.03743999999983</v>
+        <v>253.17759999999993</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>208</v>
@@ -24604,11 +24725,11 @@
       </c>
       <c r="G12" s="28">
         <f t="shared" si="1"/>
-        <v>1301.6307199999999</v>
+        <v>685.06880000000001</v>
       </c>
       <c r="H12" s="28">
         <f t="shared" si="0"/>
-        <v>594.22271999999998</v>
+        <v>312.74880000000002</v>
       </c>
       <c r="I12" s="69" t="s">
         <v>208</v>
@@ -24638,11 +24759,11 @@
       </c>
       <c r="G13" s="28">
         <f t="shared" si="1"/>
-        <v>1230.8899199999998</v>
+        <v>647.83680000000004</v>
       </c>
       <c r="H13" s="28">
         <f t="shared" si="0"/>
-        <v>523.48191999999995</v>
+        <v>275.51680000000005</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>184</v>
@@ -24672,11 +24793,11 @@
       </c>
       <c r="G14" s="28">
         <f t="shared" si="1"/>
-        <v>1308.7048</v>
+        <v>688.79200000000003</v>
       </c>
       <c r="H14" s="28">
         <f t="shared" si="0"/>
-        <v>601.29680000000008</v>
+        <v>316.47200000000004</v>
       </c>
       <c r="I14" s="69" t="s">
         <v>189</v>
@@ -24706,11 +24827,11 @@
       </c>
       <c r="G15" s="28">
         <f t="shared" si="1"/>
-        <v>1365.2974399999998</v>
+        <v>718.57759999999996</v>
       </c>
       <c r="H15" s="28">
         <f t="shared" si="0"/>
-        <v>657.88943999999992</v>
+        <v>346.25759999999997</v>
       </c>
       <c r="I15" s="69" t="s">
         <v>208</v>
@@ -24743,7 +24864,7 @@
       </c>
       <c r="H16" s="28">
         <f t="shared" si="0"/>
-        <v>-707.4079999999999</v>
+        <v>-372.32</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>32</v>
@@ -24773,11 +24894,11 @@
       </c>
       <c r="G17" s="28">
         <f>C17*D$32</f>
-        <v>1209.6676799999998</v>
+        <v>636.66719999999998</v>
       </c>
       <c r="H17" s="28">
         <f t="shared" si="0"/>
-        <v>502.25967999999989</v>
+        <v>264.34719999999999</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>208</v>
@@ -24999,8 +25120,8 @@
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="27">
-        <f>D31*3.8</f>
-        <v>707.4079999999999</v>
+        <f>D31*2</f>
+        <v>372.32</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="19"/>
@@ -25016,7 +25137,7 @@
       <c r="C33" s="6"/>
       <c r="D33" s="28">
         <f>SUM(H2:H20)</f>
-        <v>2129.2980799999996</v>
+        <v>1120.6831999999997</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="19"/>
@@ -25032,7 +25153,7 @@
       <c r="C34" s="6"/>
       <c r="D34" s="47">
         <f>D33/D29*100</f>
-        <v>11.437999999999999</v>
+        <v>6.0199999999999987</v>
       </c>
       <c r="E34" s="47"/>
       <c r="F34" s="19"/>

--- a/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
+++ b/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="27" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="329">
   <si>
     <t>DATA</t>
   </si>
@@ -1021,6 +1021,15 @@
   </si>
   <si>
     <t>STAKE BET MATRIZ-FULL 2%</t>
+  </si>
+  <si>
+    <t>FORTALEZA vs CORITIBA</t>
+  </si>
+  <si>
+    <t>PALMEIRAS vs VASCO DA GAMA</t>
+  </si>
+  <si>
+    <t>RIO GRANDE vs SAN DIEGO LOYAL</t>
   </si>
 </sst>
 </file>
@@ -10793,10 +10802,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11649,6 +11658,174 @@
         <v>2.4</v>
       </c>
       <c r="S15">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>45165</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C16" s="40">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="D16" s="40">
+        <v>4.13</v>
+      </c>
+      <c r="E16" s="40">
+        <v>6.04</v>
+      </c>
+      <c r="F16" s="40">
+        <v>3.37</v>
+      </c>
+      <c r="G16" s="40">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H16" s="40">
+        <v>1.833</v>
+      </c>
+      <c r="I16" s="40">
+        <v>1.8606</v>
+      </c>
+      <c r="J16" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16">
+        <v>1.5489999999999999</v>
+      </c>
+      <c r="M16">
+        <v>65</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16">
+        <v>404</v>
+      </c>
+      <c r="P16">
+        <v>2.37</v>
+      </c>
+      <c r="Q16">
+        <v>2.95</v>
+      </c>
+      <c r="R16">
+        <v>404</v>
+      </c>
+      <c r="S16">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>45165</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C17" s="40">
+        <v>1.478</v>
+      </c>
+      <c r="D17" s="40">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="E17" s="40">
+        <v>7.85</v>
+      </c>
+      <c r="F17" s="40">
+        <v>3.45</v>
+      </c>
+      <c r="G17" s="40">
+        <v>2.02</v>
+      </c>
+      <c r="H17" s="40">
+        <v>1.869</v>
+      </c>
+      <c r="I17" s="40">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="J17" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17">
+        <v>1.5229999999999999</v>
+      </c>
+      <c r="M17">
+        <v>41</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="O17">
+        <v>404</v>
+      </c>
+      <c r="P17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q17">
+        <v>2.82</v>
+      </c>
+      <c r="R17">
+        <v>404</v>
+      </c>
+      <c r="S17">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>45165</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C18" s="40">
+        <v>2.23</v>
+      </c>
+      <c r="D18" s="40">
+        <v>3.49</v>
+      </c>
+      <c r="E18" s="40">
+        <v>3.04</v>
+      </c>
+      <c r="F18" s="40">
+        <v>404</v>
+      </c>
+      <c r="G18" s="40">
+        <v>1.8129999999999999</v>
+      </c>
+      <c r="H18" s="40">
+        <v>2.02</v>
+      </c>
+      <c r="I18" s="40">
+        <v>1.5880000000000001</v>
+      </c>
+      <c r="J18" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18">
+        <v>1.3660000000000001</v>
+      </c>
+      <c r="M18">
+        <v>14</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18">
+        <v>404</v>
+      </c>
+      <c r="P18">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="Q18">
+        <v>2.34</v>
+      </c>
+      <c r="R18">
+        <v>404</v>
+      </c>
+      <c r="S18">
         <v>404</v>
       </c>
     </row>
@@ -11667,7 +11844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>

--- a/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
+++ b/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="27" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="julhoInvest" sheetId="30" r:id="rId15"/>
     <sheet name="agosto" sheetId="14" r:id="rId16"/>
     <sheet name="agostoInvest" sheetId="17" r:id="rId17"/>
+    <sheet name="setembro" sheetId="31" r:id="rId18"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="336">
   <si>
     <t>DATA</t>
   </si>
@@ -1030,6 +1031,27 @@
   </si>
   <si>
     <t>RIO GRANDE vs SAN DIEGO LOYAL</t>
+  </si>
+  <si>
+    <t>RIO GRANDE vs SAN ANTONIO</t>
+  </si>
+  <si>
+    <t>LYON vs PARIS SG</t>
+  </si>
+  <si>
+    <t>PLYMOUTH vs BLACKBURN</t>
+  </si>
+  <si>
+    <t>WEST BROM vs HUDDERSFIELD</t>
+  </si>
+  <si>
+    <t>BAHIA vs VASCO DA GAMA</t>
+  </si>
+  <si>
+    <t>NEW MEXICO vs CHARLESTON</t>
+  </si>
+  <si>
+    <t>PHOENIX RISING vs RIO GRANDE</t>
   </si>
 </sst>
 </file>
@@ -1611,7 +1633,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="85">
+  <dxfs count="86">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2517,16 +2549,16 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Equipes-style 2" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="84"/>
-      <tableStyleElement type="secondRowStripe" dxfId="83"/>
+      <tableStyleElement type="firstRowStripe" dxfId="85"/>
+      <tableStyleElement type="secondRowStripe" dxfId="84"/>
     </tableStyle>
     <tableStyle name="Equipes-style 3" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="82"/>
-      <tableStyleElement type="secondRowStripe" dxfId="81"/>
+      <tableStyleElement type="firstRowStripe" dxfId="83"/>
+      <tableStyleElement type="secondRowStripe" dxfId="82"/>
     </tableStyle>
     <tableStyle name="Equipes-style 4" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="80"/>
-      <tableStyleElement type="secondRowStripe" dxfId="79"/>
+      <tableStyleElement type="firstRowStripe" dxfId="81"/>
+      <tableStyleElement type="secondRowStripe" dxfId="80"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2541,16 +2573,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_2355" displayName="Table_2355" ref="G106:J106" headerRowCount="0" headerRowDxfId="72" dataDxfId="71" totalsRowDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_2355" displayName="Table_2355" ref="G106:J106" headerRowCount="0" headerRowDxfId="73" dataDxfId="72" totalsRowDxfId="71">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="69">
+    <tableColumn id="1" name="Column1" dataDxfId="70">
       <calculatedColumnFormula>COUNTIF($J$2:$J$90,H106)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="68"/>
-    <tableColumn id="3" name="Column3" dataDxfId="67">
+    <tableColumn id="2" name="Column2" dataDxfId="69"/>
+    <tableColumn id="3" name="Column3" dataDxfId="68">
       <calculatedColumnFormula>SUMIFS($H$2:$H$90,$J$2:$J$90,H106)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="66">
+    <tableColumn id="4" name="Column4" dataDxfId="67">
       <calculatedColumnFormula>I106/D$100*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2559,16 +2591,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_3366" displayName="Table_3366" ref="G107:J107" headerRowCount="0" headerRowDxfId="65" dataDxfId="64" totalsRowDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_3366" displayName="Table_3366" ref="G107:J107" headerRowCount="0" headerRowDxfId="66" dataDxfId="65" totalsRowDxfId="64">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="62">
+    <tableColumn id="1" name="Column1" dataDxfId="63">
       <calculatedColumnFormula>COUNTIF($J$2:$J$90,H107)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="61"/>
-    <tableColumn id="3" name="Column3" dataDxfId="60">
+    <tableColumn id="2" name="Column2" dataDxfId="62"/>
+    <tableColumn id="3" name="Column3" dataDxfId="61">
       <calculatedColumnFormula>SUMIFS($H$2:$H$90,$J$2:$J$90,H107)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="59">
+    <tableColumn id="4" name="Column4" dataDxfId="60">
       <calculatedColumnFormula>I107/D$100*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2577,17 +2609,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_4377" displayName="Table_4377" ref="G108:J110" headerRowCount="0" totalsRowCount="1" headerRowDxfId="58" dataDxfId="57" totalsRowDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_4377" displayName="Table_4377" ref="G108:J110" headerRowCount="0" totalsRowCount="1" headerRowDxfId="59" dataDxfId="58" totalsRowDxfId="57">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="54">
+    <tableColumn id="1" name="Column1" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="55">
       <calculatedColumnFormula>COUNTIF($J$2:$J$90,H108)</calculatedColumnFormula>
       <totalsRowFormula>SUM(G93:G109)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="3" name="Column3" dataDxfId="51" totalsRowDxfId="50">
+    <tableColumn id="2" name="Column2" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="3" name="Column3" dataDxfId="52" totalsRowDxfId="51">
       <calculatedColumnFormula>SUMIFS($H$2:$H$90,$J$2:$J$90,H108)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="49" totalsRowDxfId="48">
+    <tableColumn id="4" name="Column4" dataDxfId="50" totalsRowDxfId="49">
       <calculatedColumnFormula>I108/D$100*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6285,26 +6317,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I93:I109">
-    <cfRule type="cellIs" dxfId="78" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85:H90 H2:H83">
-    <cfRule type="cellIs" dxfId="76" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="74" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8164,7 +8196,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9047,21 +9079,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F22:F38 I22:I38">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H20">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9325,7 +9357,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9740,21 +9772,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F7:F23 I7:I23">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10317,7 +10349,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10778,21 +10810,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F9:F23 I9:I23">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H7">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10802,10 +10834,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11829,9 +11861,65 @@
         <v>404</v>
       </c>
     </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>45169</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C19" s="40">
+        <v>3.13</v>
+      </c>
+      <c r="D19" s="40">
+        <v>3.39</v>
+      </c>
+      <c r="E19" s="40">
+        <v>2.23</v>
+      </c>
+      <c r="F19" s="40">
+        <v>404</v>
+      </c>
+      <c r="G19" s="40">
+        <v>1.877</v>
+      </c>
+      <c r="H19" s="40">
+        <v>1.9430000000000001</v>
+      </c>
+      <c r="I19" s="40">
+        <v>1.6359999999999999</v>
+      </c>
+      <c r="J19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19">
+        <v>1.403</v>
+      </c>
+      <c r="M19">
+        <v>32</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19">
+        <v>404</v>
+      </c>
+      <c r="P19">
+        <v>2.1</v>
+      </c>
+      <c r="Q19">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="R19">
+        <v>404</v>
+      </c>
+      <c r="S19">
+        <v>404</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12378,26 +12466,438 @@
     <mergeCell ref="H13:I13"/>
   </mergeCells>
   <conditionalFormatting sqref="F15:F32 I15:I32">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H12">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="144" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>45171</v>
+      </c>
+      <c r="B2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2">
+        <v>5.88</v>
+      </c>
+      <c r="D2">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E2">
+        <v>1.512</v>
+      </c>
+      <c r="F2">
+        <v>404</v>
+      </c>
+      <c r="G2">
+        <v>1.4359999999999999</v>
+      </c>
+      <c r="H2">
+        <v>2.9</v>
+      </c>
+      <c r="I2">
+        <v>1.3067</v>
+      </c>
+      <c r="J2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K2">
+        <v>404</v>
+      </c>
+      <c r="M2">
+        <v>62</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2">
+        <v>404</v>
+      </c>
+      <c r="P2">
+        <v>1.526</v>
+      </c>
+      <c r="Q2">
+        <v>1.653</v>
+      </c>
+      <c r="R2">
+        <v>1.8839999999999999</v>
+      </c>
+      <c r="S2">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>45171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3">
+        <v>2.79</v>
+      </c>
+      <c r="D3">
+        <v>3.76</v>
+      </c>
+      <c r="E3">
+        <v>2.48</v>
+      </c>
+      <c r="F3">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="G3">
+        <v>1.645</v>
+      </c>
+      <c r="H3">
+        <v>2.35</v>
+      </c>
+      <c r="I3">
+        <v>404</v>
+      </c>
+      <c r="J3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K3">
+        <v>404</v>
+      </c>
+      <c r="M3">
+        <v>68</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3">
+        <v>404</v>
+      </c>
+      <c r="P3">
+        <v>1.7929999999999999</v>
+      </c>
+      <c r="Q3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="R3">
+        <v>2.29</v>
+      </c>
+      <c r="S3">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>45171</v>
+      </c>
+      <c r="B4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4">
+        <v>1.694</v>
+      </c>
+      <c r="D4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E4">
+        <v>5.08</v>
+      </c>
+      <c r="F4">
+        <v>3.82</v>
+      </c>
+      <c r="G4">
+        <v>1.8839999999999999</v>
+      </c>
+      <c r="H4">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I4">
+        <v>1.657</v>
+      </c>
+      <c r="J4" t="s">
+        <v>154</v>
+      </c>
+      <c r="K4">
+        <v>1.4339999999999999</v>
+      </c>
+      <c r="M4">
+        <v>49</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4">
+        <v>404</v>
+      </c>
+      <c r="P4">
+        <v>2.12</v>
+      </c>
+      <c r="Q4">
+        <v>2.54</v>
+      </c>
+      <c r="R4">
+        <v>404</v>
+      </c>
+      <c r="S4">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>45172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5">
+        <v>2.11</v>
+      </c>
+      <c r="D5">
+        <v>3.32</v>
+      </c>
+      <c r="E5">
+        <v>3.96</v>
+      </c>
+      <c r="F5">
+        <v>3.11</v>
+      </c>
+      <c r="G5">
+        <v>2.25</v>
+      </c>
+      <c r="H5">
+        <v>1.6990000000000001</v>
+      </c>
+      <c r="I5">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="J5" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5">
+        <v>1.657</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="O5">
+        <v>1.4970000000000001</v>
+      </c>
+      <c r="P5">
+        <v>2.63</v>
+      </c>
+      <c r="Q5">
+        <v>404</v>
+      </c>
+      <c r="R5">
+        <v>404</v>
+      </c>
+      <c r="S5">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>45172</v>
+      </c>
+      <c r="B6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6">
+        <v>2.11</v>
+      </c>
+      <c r="D6">
+        <v>3.54</v>
+      </c>
+      <c r="E6">
+        <v>3.25</v>
+      </c>
+      <c r="F6">
+        <v>404</v>
+      </c>
+      <c r="G6">
+        <v>1.8260000000000001</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>1.6020000000000001</v>
+      </c>
+      <c r="J6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K6">
+        <v>1.3779999999999999</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6">
+        <v>404</v>
+      </c>
+      <c r="P6">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="Q6">
+        <v>2.38</v>
+      </c>
+      <c r="R6">
+        <v>404</v>
+      </c>
+      <c r="S6">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>45172</v>
+      </c>
+      <c r="B7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7">
+        <v>1.99</v>
+      </c>
+      <c r="D7">
+        <v>3.67</v>
+      </c>
+      <c r="E7">
+        <v>3.43</v>
+      </c>
+      <c r="F7">
+        <v>404</v>
+      </c>
+      <c r="G7">
+        <v>1.704</v>
+      </c>
+      <c r="H7">
+        <v>2.13</v>
+      </c>
+      <c r="I7">
+        <v>1.502</v>
+      </c>
+      <c r="J7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7">
+        <v>404</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7">
+        <v>404</v>
+      </c>
+      <c r="P7">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="Q7">
+        <v>2.17</v>
+      </c>
+      <c r="R7">
+        <v>2.44</v>
+      </c>
+      <c r="S7">
+        <v>404</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"NOT INVEST"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16013,7 +16513,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16868,21 +17368,21 @@
     <mergeCell ref="H17:I17"/>
   </mergeCells>
   <conditionalFormatting sqref="F19:F36 I19:I36">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H16">
-    <cfRule type="cellIs" dxfId="43" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19329,7 +19829,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20388,21 +20888,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F25:F42 I25:I42">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H23">
-    <cfRule type="cellIs" dxfId="37" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21491,7 +21991,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22144,21 +22644,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F13:F30 I13:I30">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24486,7 +24986,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25399,21 +25899,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F22:F39 I22:I39">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H20">
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
+++ b/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="348">
   <si>
     <t>DATA</t>
   </si>
@@ -1052,6 +1052,42 @@
   </si>
   <si>
     <t>PHOENIX RISING vs RIO GRANDE</t>
+  </si>
+  <si>
+    <t>SANTOS vs CRUZEIRO</t>
+  </si>
+  <si>
+    <t>HULL CITY vs COVENTRY CITY</t>
+  </si>
+  <si>
+    <t>AL KHALEEJ vs AL FATEH</t>
+  </si>
+  <si>
+    <t>saudi arabia - professional league</t>
+  </si>
+  <si>
+    <t>GOIAS vs FLAMENGO</t>
+  </si>
+  <si>
+    <t>HULL CITY vs LEEDS UTD</t>
+  </si>
+  <si>
+    <t>ARSENAL vs TOTTENHAM</t>
+  </si>
+  <si>
+    <t>BOLOGNA vs NAPOLI</t>
+  </si>
+  <si>
+    <t>CROTONE vs SORRENTO</t>
+  </si>
+  <si>
+    <t>PARIS SG vs MARSEILLE</t>
+  </si>
+  <si>
+    <t>BAYERN MUNICH vs BOCHUM</t>
+  </si>
+  <si>
+    <t>COVENTRY CITY vs HUDDERSFIELD</t>
   </si>
 </sst>
 </file>
@@ -8210,7 +8246,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8644,7 +8680,7 @@
         <v>295</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" si="0"/>
@@ -12491,10 +12527,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12888,6 +12924,622 @@
       </c>
       <c r="S7">
         <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>45183</v>
+      </c>
+      <c r="B8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8">
+        <v>2.65</v>
+      </c>
+      <c r="D8">
+        <v>3.12</v>
+      </c>
+      <c r="E8">
+        <v>3.04</v>
+      </c>
+      <c r="F8">
+        <v>2.71</v>
+      </c>
+      <c r="G8">
+        <v>2.61</v>
+      </c>
+      <c r="H8">
+        <v>1.5369999999999999</v>
+      </c>
+      <c r="I8">
+        <v>2.266</v>
+      </c>
+      <c r="J8" t="s">
+        <v>154</v>
+      </c>
+      <c r="K8">
+        <v>1.909</v>
+      </c>
+      <c r="M8">
+        <v>60</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="O8">
+        <v>1.649</v>
+      </c>
+      <c r="P8">
+        <v>404</v>
+      </c>
+      <c r="Q8">
+        <v>404</v>
+      </c>
+      <c r="R8">
+        <v>404</v>
+      </c>
+      <c r="S8">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>45184</v>
+      </c>
+      <c r="B9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9">
+        <v>2.84</v>
+      </c>
+      <c r="D9">
+        <v>3.51</v>
+      </c>
+      <c r="E9">
+        <v>2.56</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>1.877</v>
+      </c>
+      <c r="H9">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I9">
+        <v>1.641</v>
+      </c>
+      <c r="J9" t="s">
+        <v>154</v>
+      </c>
+      <c r="K9">
+        <v>1.411</v>
+      </c>
+      <c r="M9">
+        <v>54</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9">
+        <v>404</v>
+      </c>
+      <c r="P9">
+        <v>2.1</v>
+      </c>
+      <c r="Q9">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="R9">
+        <v>404</v>
+      </c>
+      <c r="S9">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>45184</v>
+      </c>
+      <c r="B10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10">
+        <v>3.47</v>
+      </c>
+      <c r="D10">
+        <v>3.78</v>
+      </c>
+      <c r="E10">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F10">
+        <v>4.74</v>
+      </c>
+      <c r="G10">
+        <v>1.621</v>
+      </c>
+      <c r="H10">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="I10">
+        <v>404</v>
+      </c>
+      <c r="J10" t="s">
+        <v>154</v>
+      </c>
+      <c r="K10">
+        <v>404</v>
+      </c>
+      <c r="M10">
+        <v>60</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="O10">
+        <v>404</v>
+      </c>
+      <c r="P10">
+        <v>1.7629999999999999</v>
+      </c>
+      <c r="Q10">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="R10">
+        <v>2.27</v>
+      </c>
+      <c r="S10">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>45189</v>
+      </c>
+      <c r="B11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C11">
+        <v>3.08</v>
+      </c>
+      <c r="D11">
+        <v>3.23</v>
+      </c>
+      <c r="E11">
+        <v>2.54</v>
+      </c>
+      <c r="F11">
+        <v>2.98</v>
+      </c>
+      <c r="G11">
+        <v>2.29</v>
+      </c>
+      <c r="H11">
+        <v>1.671</v>
+      </c>
+      <c r="I11">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="J11" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11">
+        <v>1.704</v>
+      </c>
+      <c r="M11">
+        <v>29</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11">
+        <v>1.534</v>
+      </c>
+      <c r="P11">
+        <v>2.69</v>
+      </c>
+      <c r="Q11">
+        <v>404</v>
+      </c>
+      <c r="R11">
+        <v>404</v>
+      </c>
+      <c r="S11">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>45189</v>
+      </c>
+      <c r="B12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C12">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="D12">
+        <v>3.72</v>
+      </c>
+      <c r="E12">
+        <v>1.9430000000000001</v>
+      </c>
+      <c r="F12">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="G12">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="H12">
+        <v>2.13</v>
+      </c>
+      <c r="I12">
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="J12" t="s">
+        <v>154</v>
+      </c>
+      <c r="K12">
+        <v>404</v>
+      </c>
+      <c r="M12">
+        <v>32</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12">
+        <v>404</v>
+      </c>
+      <c r="P12">
+        <v>1.98</v>
+      </c>
+      <c r="Q12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R12">
+        <v>2.61</v>
+      </c>
+      <c r="S12">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>45193</v>
+      </c>
+      <c r="B13" t="s">
+        <v>342</v>
+      </c>
+      <c r="C13">
+        <v>1.68</v>
+      </c>
+      <c r="D13">
+        <v>4.43</v>
+      </c>
+      <c r="E13">
+        <v>4.79</v>
+      </c>
+      <c r="F13">
+        <v>404</v>
+      </c>
+      <c r="G13">
+        <v>1.5</v>
+      </c>
+      <c r="H13">
+        <v>2.67</v>
+      </c>
+      <c r="I13">
+        <v>404</v>
+      </c>
+      <c r="J13" t="s">
+        <v>154</v>
+      </c>
+      <c r="K13">
+        <v>404</v>
+      </c>
+      <c r="M13">
+        <v>29</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13">
+        <v>404</v>
+      </c>
+      <c r="P13">
+        <v>1.613</v>
+      </c>
+      <c r="Q13">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="R13">
+        <v>2.04</v>
+      </c>
+      <c r="S13">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>45193</v>
+      </c>
+      <c r="B14" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14">
+        <v>3.81</v>
+      </c>
+      <c r="D14">
+        <v>3.71</v>
+      </c>
+      <c r="E14">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F14">
+        <v>404</v>
+      </c>
+      <c r="G14">
+        <v>1.819</v>
+      </c>
+      <c r="H14">
+        <v>2.06</v>
+      </c>
+      <c r="I14">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14">
+        <v>1.3839999999999999</v>
+      </c>
+      <c r="M14">
+        <v>23</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14">
+        <v>1.31</v>
+      </c>
+      <c r="P14">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="Q14">
+        <v>2.4</v>
+      </c>
+      <c r="R14">
+        <v>2.72</v>
+      </c>
+      <c r="S14">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>45193</v>
+      </c>
+      <c r="B15" t="s">
+        <v>344</v>
+      </c>
+      <c r="C15">
+        <v>404</v>
+      </c>
+      <c r="D15">
+        <v>404</v>
+      </c>
+      <c r="E15">
+        <v>404</v>
+      </c>
+      <c r="F15">
+        <v>404</v>
+      </c>
+      <c r="G15">
+        <v>404</v>
+      </c>
+      <c r="H15">
+        <v>404</v>
+      </c>
+      <c r="I15">
+        <v>404</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15">
+        <v>404</v>
+      </c>
+      <c r="M15">
+        <v>35</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15">
+        <v>404</v>
+      </c>
+      <c r="P15">
+        <v>404</v>
+      </c>
+      <c r="Q15">
+        <v>404</v>
+      </c>
+      <c r="R15">
+        <v>404</v>
+      </c>
+      <c r="S15">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>45193</v>
+      </c>
+      <c r="B16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C16">
+        <v>1.621</v>
+      </c>
+      <c r="D16">
+        <v>4.45</v>
+      </c>
+      <c r="E16">
+        <v>5.28</v>
+      </c>
+      <c r="F16">
+        <v>404</v>
+      </c>
+      <c r="G16">
+        <v>1.54</v>
+      </c>
+      <c r="H16">
+        <v>2.6</v>
+      </c>
+      <c r="I16">
+        <v>1.38</v>
+      </c>
+      <c r="J16" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16">
+        <v>1.2270000000000001</v>
+      </c>
+      <c r="M16">
+        <v>43</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O16">
+        <v>404</v>
+      </c>
+      <c r="P16">
+        <v>1.657</v>
+      </c>
+      <c r="Q16">
+        <v>1.84</v>
+      </c>
+      <c r="R16">
+        <v>2.09</v>
+      </c>
+      <c r="S16">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>45192</v>
+      </c>
+      <c r="B17" t="s">
+        <v>346</v>
+      </c>
+      <c r="C17">
+        <v>404</v>
+      </c>
+      <c r="D17">
+        <v>404</v>
+      </c>
+      <c r="E17">
+        <v>404</v>
+      </c>
+      <c r="F17">
+        <v>404</v>
+      </c>
+      <c r="G17">
+        <v>404</v>
+      </c>
+      <c r="H17">
+        <v>404</v>
+      </c>
+      <c r="I17">
+        <v>404</v>
+      </c>
+      <c r="J17" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17">
+        <v>404</v>
+      </c>
+      <c r="M17">
+        <v>15</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O17">
+        <v>404</v>
+      </c>
+      <c r="P17">
+        <v>404</v>
+      </c>
+      <c r="Q17">
+        <v>404</v>
+      </c>
+      <c r="R17">
+        <v>404</v>
+      </c>
+      <c r="S17">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>45194</v>
+      </c>
+      <c r="B18" t="s">
+        <v>347</v>
+      </c>
+      <c r="C18">
+        <v>1.8620000000000001</v>
+      </c>
+      <c r="D18">
+        <v>3.79</v>
+      </c>
+      <c r="E18">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="F18">
+        <v>3.9</v>
+      </c>
+      <c r="G18">
+        <v>1.8839999999999999</v>
+      </c>
+      <c r="H18">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I18">
+        <v>1.653</v>
+      </c>
+      <c r="J18" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18">
+        <v>1.423</v>
+      </c>
+      <c r="M18">
+        <v>38</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O18">
+        <v>404</v>
+      </c>
+      <c r="P18">
+        <v>2.11</v>
+      </c>
+      <c r="Q18">
+        <v>2.52</v>
+      </c>
+      <c r="R18">
+        <v>404</v>
+      </c>
+      <c r="S18">
+        <v>3.16</v>
       </c>
     </row>
   </sheetData>

--- a/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
+++ b/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="17"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="12" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="27" r:id="rId1"/>
@@ -25,13 +25,14 @@
     <sheet name="agosto" sheetId="14" r:id="rId16"/>
     <sheet name="agostoInvest" sheetId="17" r:id="rId17"/>
     <sheet name="setembro" sheetId="31" r:id="rId18"/>
+    <sheet name="outubro" sheetId="32" r:id="rId19"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="351">
   <si>
     <t>DATA</t>
   </si>
@@ -1088,6 +1089,15 @@
   </si>
   <si>
     <t>COVENTRY CITY vs HUDDERSFIELD</t>
+  </si>
+  <si>
+    <t>CREMONESE vs PARMA</t>
+  </si>
+  <si>
+    <t>LORIENT vs MONTPELLIER</t>
+  </si>
+  <si>
+    <t>FIORENTINA vs CAGLIARI</t>
   </si>
 </sst>
 </file>
@@ -1669,7 +1679,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="86">
+  <dxfs count="88">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2162,6 +2182,76 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2475,66 +2565,6 @@
       <alignment horizontal="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFCE5CD"/>
@@ -2585,16 +2615,16 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Equipes-style 2" pivot="0" count="2">
+      <tableStyleElement type="firstRowStripe" dxfId="87"/>
+      <tableStyleElement type="secondRowStripe" dxfId="86"/>
+    </tableStyle>
+    <tableStyle name="Equipes-style 3" pivot="0" count="2">
       <tableStyleElement type="firstRowStripe" dxfId="85"/>
       <tableStyleElement type="secondRowStripe" dxfId="84"/>
     </tableStyle>
-    <tableStyle name="Equipes-style 3" pivot="0" count="2">
+    <tableStyle name="Equipes-style 4" pivot="0" count="2">
       <tableStyleElement type="firstRowStripe" dxfId="83"/>
       <tableStyleElement type="secondRowStripe" dxfId="82"/>
-    </tableStyle>
-    <tableStyle name="Equipes-style 4" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="81"/>
-      <tableStyleElement type="secondRowStripe" dxfId="80"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2609,16 +2639,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_2355" displayName="Table_2355" ref="G106:J106" headerRowCount="0" headerRowDxfId="73" dataDxfId="72" totalsRowDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_2355" displayName="Table_2355" ref="G106:J106" headerRowCount="0" headerRowDxfId="81" dataDxfId="80" totalsRowDxfId="79">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="70">
+    <tableColumn id="1" name="Column1" dataDxfId="78">
       <calculatedColumnFormula>COUNTIF($J$2:$J$90,H106)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="69"/>
-    <tableColumn id="3" name="Column3" dataDxfId="68">
+    <tableColumn id="2" name="Column2" dataDxfId="77"/>
+    <tableColumn id="3" name="Column3" dataDxfId="76">
       <calculatedColumnFormula>SUMIFS($H$2:$H$90,$J$2:$J$90,H106)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="67">
+    <tableColumn id="4" name="Column4" dataDxfId="75">
       <calculatedColumnFormula>I106/D$100*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2627,16 +2657,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_3366" displayName="Table_3366" ref="G107:J107" headerRowCount="0" headerRowDxfId="66" dataDxfId="65" totalsRowDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_3366" displayName="Table_3366" ref="G107:J107" headerRowCount="0" headerRowDxfId="74" dataDxfId="73" totalsRowDxfId="72">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="63">
+    <tableColumn id="1" name="Column1" dataDxfId="71">
       <calculatedColumnFormula>COUNTIF($J$2:$J$90,H107)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="62"/>
-    <tableColumn id="3" name="Column3" dataDxfId="61">
+    <tableColumn id="2" name="Column2" dataDxfId="70"/>
+    <tableColumn id="3" name="Column3" dataDxfId="69">
       <calculatedColumnFormula>SUMIFS($H$2:$H$90,$J$2:$J$90,H107)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="60">
+    <tableColumn id="4" name="Column4" dataDxfId="68">
       <calculatedColumnFormula>I107/D$100*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2645,17 +2675,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_4377" displayName="Table_4377" ref="G108:J110" headerRowCount="0" totalsRowCount="1" headerRowDxfId="59" dataDxfId="58" totalsRowDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_4377" displayName="Table_4377" ref="G108:J110" headerRowCount="0" totalsRowCount="1" headerRowDxfId="67" dataDxfId="66" totalsRowDxfId="65">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="55">
+    <tableColumn id="1" name="Column1" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="63">
       <calculatedColumnFormula>COUNTIF($J$2:$J$90,H108)</calculatedColumnFormula>
       <totalsRowFormula>SUM(G93:G109)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="3" name="Column3" dataDxfId="52" totalsRowDxfId="51">
+    <tableColumn id="2" name="Column2" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="3" name="Column3" dataDxfId="60" totalsRowDxfId="59">
       <calculatedColumnFormula>SUMIFS($H$2:$H$90,$J$2:$J$90,H108)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="50" totalsRowDxfId="49">
+    <tableColumn id="4" name="Column4" dataDxfId="58" totalsRowDxfId="57">
       <calculatedColumnFormula>I108/D$100*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6353,26 +6383,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I93:I109">
-    <cfRule type="cellIs" dxfId="79" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85:H90 H2:H83">
-    <cfRule type="cellIs" dxfId="77" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="75" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8232,7 +8262,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9115,21 +9145,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F22:F38 I22:I38">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H20">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9393,7 +9423,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9808,21 +9838,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F7:F23 I7:I23">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10385,7 +10415,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10846,21 +10876,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F9:F23 I9:I23">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H7">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11955,7 +11985,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12502,21 +12532,21 @@
     <mergeCell ref="H13:I13"/>
   </mergeCells>
   <conditionalFormatting sqref="F15:F32 I15:I32">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H12">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12527,10 +12557,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="I4" workbookViewId="0">
+      <selection sqref="A1:S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13540,6 +13570,329 @@
       </c>
       <c r="S18">
         <v>3.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>45200</v>
+      </c>
+      <c r="B19" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D19">
+        <v>3.38</v>
+      </c>
+      <c r="E19">
+        <v>3.54</v>
+      </c>
+      <c r="F19">
+        <v>3.67</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>1.8839999999999999</v>
+      </c>
+      <c r="I19">
+        <v>1.74</v>
+      </c>
+      <c r="J19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19">
+        <v>1.4850000000000001</v>
+      </c>
+      <c r="M19">
+        <v>41</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="O19">
+        <v>404</v>
+      </c>
+      <c r="P19">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="Q19">
+        <v>2.78</v>
+      </c>
+      <c r="R19">
+        <v>404</v>
+      </c>
+      <c r="S19">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>45200</v>
+      </c>
+      <c r="B20" t="s">
+        <v>349</v>
+      </c>
+      <c r="C20">
+        <v>3.04</v>
+      </c>
+      <c r="D20">
+        <v>3.6</v>
+      </c>
+      <c r="E20">
+        <v>2.37</v>
+      </c>
+      <c r="F20">
+        <v>404</v>
+      </c>
+      <c r="G20">
+        <v>1.83</v>
+      </c>
+      <c r="H20">
+        <v>2.08</v>
+      </c>
+      <c r="I20">
+        <v>1.595</v>
+      </c>
+      <c r="J20" t="s">
+        <v>154</v>
+      </c>
+      <c r="K20">
+        <v>1.373</v>
+      </c>
+      <c r="M20">
+        <v>30</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O20">
+        <v>1.3</v>
+      </c>
+      <c r="P20">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="Q20">
+        <v>2.37</v>
+      </c>
+      <c r="R20">
+        <v>2.68</v>
+      </c>
+      <c r="S20">
+        <v>2.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"NOT INVEST"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="144" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>45200</v>
+      </c>
+      <c r="B2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D2">
+        <v>3.38</v>
+      </c>
+      <c r="E2">
+        <v>3.54</v>
+      </c>
+      <c r="F2">
+        <v>3.67</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>1.8839999999999999</v>
+      </c>
+      <c r="I2">
+        <v>1.74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K2">
+        <v>1.4850000000000001</v>
+      </c>
+      <c r="M2">
+        <v>41</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="O2">
+        <v>404</v>
+      </c>
+      <c r="P2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="Q2">
+        <v>2.78</v>
+      </c>
+      <c r="R2">
+        <v>404</v>
+      </c>
+      <c r="S2">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>45200</v>
+      </c>
+      <c r="B3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3">
+        <v>3.04</v>
+      </c>
+      <c r="D3">
+        <v>3.6</v>
+      </c>
+      <c r="E3">
+        <v>2.37</v>
+      </c>
+      <c r="F3">
+        <v>404</v>
+      </c>
+      <c r="G3">
+        <v>1.83</v>
+      </c>
+      <c r="H3">
+        <v>2.08</v>
+      </c>
+      <c r="I3">
+        <v>1.595</v>
+      </c>
+      <c r="J3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K3">
+        <v>1.373</v>
+      </c>
+      <c r="M3">
+        <v>30</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3">
+        <v>1.3</v>
+      </c>
+      <c r="P3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="Q3">
+        <v>2.37</v>
+      </c>
+      <c r="R3">
+        <v>2.68</v>
+      </c>
+      <c r="S3">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>45201</v>
+      </c>
+      <c r="B4" t="s">
+        <v>350</v>
+      </c>
+      <c r="M4">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -17165,7 +17518,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18020,21 +18373,21 @@
     <mergeCell ref="H17:I17"/>
   </mergeCells>
   <conditionalFormatting sqref="F19:F36 I19:I36">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H16">
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20481,7 +20834,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21540,21 +21893,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F25:F42 I25:I42">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H23">
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22643,7 +22996,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23296,21 +23649,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F13:F30 I13:I30">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25638,7 +25991,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26551,21 +26904,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F22:F39 I22:I39">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H20">
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
+++ b/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="354">
   <si>
     <t>DATA</t>
   </si>
@@ -1098,6 +1098,15 @@
   </si>
   <si>
     <t>FIORENTINA vs CAGLIARI</t>
+  </si>
+  <si>
+    <t>BRISTOL ROVERS vs PORT VALE</t>
+  </si>
+  <si>
+    <t>WEST BROM vs SHEFFIELD WED</t>
+  </si>
+  <si>
+    <t>SUDTIROL vs CATANZARO</t>
   </si>
 </sst>
 </file>
@@ -1679,7 +1688,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="88">
+  <dxfs count="87">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2182,76 +2191,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2565,6 +2504,66 @@
       <alignment horizontal="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFCE5CD"/>
@@ -2615,16 +2614,16 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Equipes-style 2" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="87"/>
-      <tableStyleElement type="secondRowStripe" dxfId="86"/>
+      <tableStyleElement type="firstRowStripe" dxfId="86"/>
+      <tableStyleElement type="secondRowStripe" dxfId="85"/>
     </tableStyle>
     <tableStyle name="Equipes-style 3" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="85"/>
-      <tableStyleElement type="secondRowStripe" dxfId="84"/>
+      <tableStyleElement type="firstRowStripe" dxfId="84"/>
+      <tableStyleElement type="secondRowStripe" dxfId="83"/>
     </tableStyle>
     <tableStyle name="Equipes-style 4" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="83"/>
-      <tableStyleElement type="secondRowStripe" dxfId="82"/>
+      <tableStyleElement type="firstRowStripe" dxfId="82"/>
+      <tableStyleElement type="secondRowStripe" dxfId="81"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2639,16 +2638,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_2355" displayName="Table_2355" ref="G106:J106" headerRowCount="0" headerRowDxfId="81" dataDxfId="80" totalsRowDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_2355" displayName="Table_2355" ref="G106:J106" headerRowCount="0" headerRowDxfId="74" dataDxfId="73" totalsRowDxfId="72">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="78">
+    <tableColumn id="1" name="Column1" dataDxfId="71">
       <calculatedColumnFormula>COUNTIF($J$2:$J$90,H106)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="77"/>
-    <tableColumn id="3" name="Column3" dataDxfId="76">
+    <tableColumn id="2" name="Column2" dataDxfId="70"/>
+    <tableColumn id="3" name="Column3" dataDxfId="69">
       <calculatedColumnFormula>SUMIFS($H$2:$H$90,$J$2:$J$90,H106)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="75">
+    <tableColumn id="4" name="Column4" dataDxfId="68">
       <calculatedColumnFormula>I106/D$100*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2657,16 +2656,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_3366" displayName="Table_3366" ref="G107:J107" headerRowCount="0" headerRowDxfId="74" dataDxfId="73" totalsRowDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_3366" displayName="Table_3366" ref="G107:J107" headerRowCount="0" headerRowDxfId="67" dataDxfId="66" totalsRowDxfId="65">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="71">
+    <tableColumn id="1" name="Column1" dataDxfId="64">
       <calculatedColumnFormula>COUNTIF($J$2:$J$90,H107)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="70"/>
-    <tableColumn id="3" name="Column3" dataDxfId="69">
+    <tableColumn id="2" name="Column2" dataDxfId="63"/>
+    <tableColumn id="3" name="Column3" dataDxfId="62">
       <calculatedColumnFormula>SUMIFS($H$2:$H$90,$J$2:$J$90,H107)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="68">
+    <tableColumn id="4" name="Column4" dataDxfId="61">
       <calculatedColumnFormula>I107/D$100*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2675,17 +2674,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_4377" displayName="Table_4377" ref="G108:J110" headerRowCount="0" totalsRowCount="1" headerRowDxfId="67" dataDxfId="66" totalsRowDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_4377" displayName="Table_4377" ref="G108:J110" headerRowCount="0" totalsRowCount="1" headerRowDxfId="60" dataDxfId="59" totalsRowDxfId="58">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="63">
+    <tableColumn id="1" name="Column1" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="56">
       <calculatedColumnFormula>COUNTIF($J$2:$J$90,H108)</calculatedColumnFormula>
       <totalsRowFormula>SUM(G93:G109)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="3" name="Column3" dataDxfId="60" totalsRowDxfId="59">
+    <tableColumn id="2" name="Column2" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="3" name="Column3" dataDxfId="53" totalsRowDxfId="52">
       <calculatedColumnFormula>SUMIFS($H$2:$H$90,$J$2:$J$90,H108)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="58" totalsRowDxfId="57">
+    <tableColumn id="4" name="Column4" dataDxfId="51" totalsRowDxfId="50">
       <calculatedColumnFormula>I108/D$100*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6383,26 +6382,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I93:I109">
-    <cfRule type="cellIs" dxfId="55" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85:H90 H2:H83">
-    <cfRule type="cellIs" dxfId="53" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="51" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13697,17 +13696,17 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.28515625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="144" x14ac:dyDescent="0.25">
@@ -13773,7 +13772,7 @@
       <c r="A2" s="5">
         <v>45200</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>348</v>
       </c>
       <c r="C2">
@@ -13829,7 +13828,7 @@
       <c r="A3" s="5">
         <v>45200</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>349</v>
       </c>
       <c r="C3">
@@ -13885,14 +13884,224 @@
       <c r="A4" s="5">
         <v>45201</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>350</v>
+      </c>
+      <c r="C4">
+        <v>1.48</v>
+      </c>
+      <c r="D4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E4">
+        <v>7.73</v>
+      </c>
+      <c r="F4">
+        <v>3.82</v>
+      </c>
+      <c r="G4">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1.653</v>
+      </c>
+      <c r="J4" t="s">
+        <v>154</v>
+      </c>
+      <c r="K4">
+        <v>1.431</v>
       </c>
       <c r="M4">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="6" t="s">
         <v>52</v>
+      </c>
+      <c r="O4">
+        <v>1.34</v>
+      </c>
+      <c r="P4">
+        <v>2.11</v>
+      </c>
+      <c r="Q4">
+        <v>2.52</v>
+      </c>
+      <c r="R4">
+        <v>2.83</v>
+      </c>
+      <c r="S4">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>45202</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C5">
+        <v>2.06</v>
+      </c>
+      <c r="D5">
+        <v>3.59</v>
+      </c>
+      <c r="E5">
+        <v>3.71</v>
+      </c>
+      <c r="F5">
+        <v>3.78</v>
+      </c>
+      <c r="G5">
+        <v>1.909</v>
+      </c>
+      <c r="H5">
+        <v>1.952</v>
+      </c>
+      <c r="I5">
+        <v>1.671</v>
+      </c>
+      <c r="J5" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5">
+        <v>1.4379999999999999</v>
+      </c>
+      <c r="M5">
+        <v>36</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5">
+        <v>404</v>
+      </c>
+      <c r="P5">
+        <v>2.15</v>
+      </c>
+      <c r="Q5">
+        <v>2.58</v>
+      </c>
+      <c r="R5">
+        <v>404</v>
+      </c>
+      <c r="S5">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>45202</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C6">
+        <v>1.657</v>
+      </c>
+      <c r="D6">
+        <v>3.84</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>3.17</v>
+      </c>
+      <c r="G6">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H6">
+        <v>1.7350000000000001</v>
+      </c>
+      <c r="I6">
+        <v>1.917</v>
+      </c>
+      <c r="J6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K6">
+        <v>1.625</v>
+      </c>
+      <c r="M6">
+        <v>16</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6">
+        <v>1.48</v>
+      </c>
+      <c r="P6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="Q6">
+        <v>404</v>
+      </c>
+      <c r="R6">
+        <v>404</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>45206</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7">
+        <v>2.64</v>
+      </c>
+      <c r="D7">
+        <v>2.99</v>
+      </c>
+      <c r="E7">
+        <v>3.18</v>
+      </c>
+      <c r="F7">
+        <v>2.91</v>
+      </c>
+      <c r="G7">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H7">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="I7">
+        <v>2.11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="M7">
+        <v>12</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="O7">
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="P7">
+        <v>404</v>
+      </c>
+      <c r="Q7">
+        <v>404</v>
+      </c>
+      <c r="R7">
+        <v>404</v>
+      </c>
+      <c r="S7">
+        <v>4.57</v>
       </c>
     </row>
   </sheetData>

--- a/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
+++ b/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="356">
   <si>
     <t>DATA</t>
   </si>
@@ -1107,6 +1107,12 @@
   </si>
   <si>
     <t>SUDTIROL vs CATANZARO</t>
+  </si>
+  <si>
+    <t>BRISTOL CITY vs COVENTRY CITY</t>
+  </si>
+  <si>
+    <t>BRISTOL ROVERS vs STEVENAGE</t>
   </si>
 </sst>
 </file>
@@ -13696,10 +13702,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13776,31 +13782,31 @@
         <v>348</v>
       </c>
       <c r="C2">
-        <v>2.2200000000000002</v>
+        <v>2.13</v>
       </c>
       <c r="D2">
-        <v>3.38</v>
+        <v>3.36</v>
       </c>
       <c r="E2">
-        <v>3.54</v>
+        <v>3.83</v>
       </c>
       <c r="F2">
-        <v>3.67</v>
+        <v>3.58</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="H2">
-        <v>1.8839999999999999</v>
+        <v>1.85</v>
       </c>
       <c r="I2">
-        <v>1.74</v>
+        <v>1.7776000000000001</v>
       </c>
       <c r="J2" t="s">
         <v>154</v>
       </c>
       <c r="K2">
-        <v>1.4850000000000001</v>
+        <v>1.51</v>
       </c>
       <c r="M2">
         <v>41</v>
@@ -13832,31 +13838,31 @@
         <v>349</v>
       </c>
       <c r="C3">
-        <v>3.04</v>
+        <v>3.24</v>
       </c>
       <c r="D3">
-        <v>3.6</v>
+        <v>3.54</v>
       </c>
       <c r="E3">
-        <v>2.37</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="F3">
-        <v>404</v>
+        <v>3.92</v>
       </c>
       <c r="G3">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="H3">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="I3">
-        <v>1.595</v>
+        <v>1.68</v>
       </c>
       <c r="J3" t="s">
         <v>154</v>
       </c>
       <c r="K3">
-        <v>1.373</v>
+        <v>1.44</v>
       </c>
       <c r="M3">
         <v>30</v>
@@ -13888,31 +13894,31 @@
         <v>350</v>
       </c>
       <c r="C4">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="D4">
-        <v>4.4000000000000004</v>
+        <v>4.08</v>
       </c>
       <c r="E4">
-        <v>7.73</v>
+        <v>6.48</v>
       </c>
       <c r="F4">
-        <v>3.82</v>
+        <v>3.62</v>
       </c>
       <c r="G4">
-        <v>1.8919999999999999</v>
+        <v>1.98</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="I4">
-        <v>1.653</v>
+        <v>1.72</v>
       </c>
       <c r="J4" t="s">
         <v>154</v>
       </c>
       <c r="K4">
-        <v>1.431</v>
+        <v>1.49</v>
       </c>
       <c r="M4">
         <v>26</v>
@@ -13944,31 +13950,31 @@
         <v>351</v>
       </c>
       <c r="C5">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="D5">
-        <v>3.59</v>
+        <v>3.54</v>
       </c>
       <c r="E5">
-        <v>3.71</v>
+        <v>3.7</v>
       </c>
       <c r="F5">
-        <v>3.78</v>
+        <v>3.83</v>
       </c>
       <c r="G5">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="H5">
-        <v>1.952</v>
+        <v>1.97</v>
       </c>
       <c r="I5">
-        <v>1.671</v>
+        <v>1.6659999999999999</v>
       </c>
       <c r="J5" t="s">
         <v>154</v>
       </c>
       <c r="K5">
-        <v>1.4379999999999999</v>
+        <v>1.43</v>
       </c>
       <c r="M5">
         <v>36</v>
@@ -14000,31 +14006,31 @@
         <v>352</v>
       </c>
       <c r="C6">
-        <v>1.657</v>
+        <v>1.6</v>
       </c>
       <c r="D6">
-        <v>3.84</v>
+        <v>3.98</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>6.56</v>
       </c>
       <c r="F6">
-        <v>3.17</v>
+        <v>3.25</v>
       </c>
       <c r="G6">
-        <v>2.1800000000000002</v>
+        <v>2.13</v>
       </c>
       <c r="H6">
-        <v>1.7350000000000001</v>
+        <v>1.77</v>
       </c>
       <c r="I6">
-        <v>1.917</v>
+        <v>1.87</v>
       </c>
       <c r="J6" t="s">
         <v>154</v>
       </c>
       <c r="K6">
-        <v>1.625</v>
+        <v>1.6</v>
       </c>
       <c r="M6">
         <v>16</v>
@@ -14056,31 +14062,31 @@
         <v>353</v>
       </c>
       <c r="C7">
-        <v>2.64</v>
+        <v>3.05</v>
       </c>
       <c r="D7">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>3.18</v>
+        <v>2.73</v>
       </c>
       <c r="F7">
-        <v>2.91</v>
+        <v>2.97</v>
       </c>
       <c r="G7">
-        <v>2.4300000000000002</v>
+        <v>2.39</v>
       </c>
       <c r="H7">
-        <v>1.6060000000000001</v>
+        <v>1.63</v>
       </c>
       <c r="I7">
-        <v>2.11</v>
+        <v>2.08</v>
       </c>
       <c r="J7" t="s">
         <v>154</v>
       </c>
       <c r="K7">
-        <v>1.7689999999999999</v>
+        <v>1.74</v>
       </c>
       <c r="M7">
         <v>12</v>
@@ -14102,6 +14108,174 @@
       </c>
       <c r="S7">
         <v>4.57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>45220</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8">
+        <v>2.95</v>
+      </c>
+      <c r="D8">
+        <v>3.39</v>
+      </c>
+      <c r="E8">
+        <v>2.54</v>
+      </c>
+      <c r="F8">
+        <v>3.47</v>
+      </c>
+      <c r="G8">
+        <v>2.04</v>
+      </c>
+      <c r="H8">
+        <v>1.85</v>
+      </c>
+      <c r="I8">
+        <v>1.78</v>
+      </c>
+      <c r="J8" t="s">
+        <v>154</v>
+      </c>
+      <c r="K8">
+        <v>1.53</v>
+      </c>
+      <c r="M8">
+        <v>11</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8">
+        <v>1.41</v>
+      </c>
+      <c r="P8">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="Q8">
+        <v>2.82</v>
+      </c>
+      <c r="R8">
+        <v>3.15</v>
+      </c>
+      <c r="S8">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>45220</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="D9">
+        <v>6.24</v>
+      </c>
+      <c r="E9">
+        <v>1.32</v>
+      </c>
+      <c r="F9">
+        <v>404</v>
+      </c>
+      <c r="G9">
+        <v>1.39</v>
+      </c>
+      <c r="H9">
+        <v>3.24</v>
+      </c>
+      <c r="I9">
+        <v>404</v>
+      </c>
+      <c r="J9" t="s">
+        <v>154</v>
+      </c>
+      <c r="K9">
+        <v>404</v>
+      </c>
+      <c r="M9">
+        <v>24</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9">
+        <v>404</v>
+      </c>
+      <c r="P9">
+        <v>1.43</v>
+      </c>
+      <c r="Q9">
+        <v>1.53</v>
+      </c>
+      <c r="R9">
+        <v>1.74</v>
+      </c>
+      <c r="S9">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>45223</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C10">
+        <v>2.42</v>
+      </c>
+      <c r="D10">
+        <v>3.39</v>
+      </c>
+      <c r="E10">
+        <v>3.07</v>
+      </c>
+      <c r="F10">
+        <v>3.64</v>
+      </c>
+      <c r="G10">
+        <v>1.99</v>
+      </c>
+      <c r="H10">
+        <v>1.88</v>
+      </c>
+      <c r="I10">
+        <v>1.72</v>
+      </c>
+      <c r="J10" t="s">
+        <v>154</v>
+      </c>
+      <c r="K10">
+        <v>1.48</v>
+      </c>
+      <c r="M10">
+        <v>35</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10">
+        <v>404</v>
+      </c>
+      <c r="P10">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="Q10">
+        <v>2.71</v>
+      </c>
+      <c r="R10">
+        <v>404</v>
+      </c>
+      <c r="S10">
+        <v>3.37</v>
       </c>
     </row>
   </sheetData>

--- a/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
+++ b/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="360">
   <si>
     <t>DATA</t>
   </si>
@@ -1113,6 +1113,18 @@
   </si>
   <si>
     <t>BRISTOL ROVERS vs STEVENAGE</t>
+  </si>
+  <si>
+    <t>  ATHLETICO PR vs AMERICA MG</t>
+  </si>
+  <si>
+    <t>BOCHUM vs FSV MAINZ</t>
+  </si>
+  <si>
+    <t>COMO vs CATANZARO</t>
+  </si>
+  <si>
+    <t>SOUTHAMPTON vs BIRMINGHAM CITY</t>
   </si>
 </sst>
 </file>
@@ -13702,16 +13714,16 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="31.28515625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14276,6 +14288,130 @@
       </c>
       <c r="S10">
         <v>3.37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>45224</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C11">
+        <v>1.58</v>
+      </c>
+      <c r="D11">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="E11">
+        <v>6.03</v>
+      </c>
+      <c r="F11">
+        <v>3.89</v>
+      </c>
+      <c r="G11">
+        <v>1.85</v>
+      </c>
+      <c r="H11">
+        <v>2.04</v>
+      </c>
+      <c r="I11">
+        <v>1.63</v>
+      </c>
+      <c r="J11" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11">
+        <v>1.43</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11">
+        <v>404</v>
+      </c>
+      <c r="P11">
+        <v>2.11</v>
+      </c>
+      <c r="Q11">
+        <v>2.52</v>
+      </c>
+      <c r="R11">
+        <v>404</v>
+      </c>
+      <c r="S11">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>45226</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="J12" t="s">
+        <v>154</v>
+      </c>
+      <c r="M12">
+        <v>38</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>45227</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="J13" t="s">
+        <v>154</v>
+      </c>
+      <c r="M13">
+        <v>6</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>45227</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14">
+        <v>31</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>45227</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15">
+        <v>48</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
+++ b/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
@@ -13716,8 +13716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14353,14 +14353,53 @@
       <c r="B12" s="6" t="s">
         <v>357</v>
       </c>
+      <c r="C12">
+        <v>2.78</v>
+      </c>
+      <c r="D12">
+        <v>3.57</v>
+      </c>
+      <c r="E12">
+        <v>2.58</v>
+      </c>
+      <c r="F12">
+        <v>4.07</v>
+      </c>
+      <c r="G12">
+        <v>1.77</v>
+      </c>
+      <c r="H12">
+        <v>2.16</v>
+      </c>
+      <c r="I12">
+        <v>1.56</v>
+      </c>
       <c r="J12" t="s">
         <v>154</v>
+      </c>
+      <c r="K12">
+        <v>1.35</v>
       </c>
       <c r="M12">
         <v>38</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>78</v>
+      </c>
+      <c r="O12">
+        <v>1.28</v>
+      </c>
+      <c r="P12">
+        <v>1.97</v>
+      </c>
+      <c r="Q12">
+        <v>3.27</v>
+      </c>
+      <c r="R12">
+        <v>2.57</v>
+      </c>
+      <c r="S12">
+        <v>2.86</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">

--- a/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
+++ b/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
@@ -13716,8 +13716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14354,25 +14354,25 @@
         <v>357</v>
       </c>
       <c r="C12">
-        <v>2.78</v>
+        <v>2.83</v>
       </c>
       <c r="D12">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="E12">
-        <v>2.58</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F12">
         <v>4.07</v>
       </c>
       <c r="G12">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="H12">
-        <v>2.16</v>
+        <v>2.09</v>
       </c>
       <c r="I12">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="J12" t="s">
         <v>154</v>

--- a/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
+++ b/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
@@ -13716,8 +13716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14409,14 +14409,53 @@
       <c r="B13" s="6" t="s">
         <v>358</v>
       </c>
+      <c r="C13">
+        <v>2.31</v>
+      </c>
+      <c r="D13">
+        <v>3.33</v>
+      </c>
+      <c r="E13">
+        <v>3.38</v>
+      </c>
+      <c r="F13">
+        <v>3.4</v>
+      </c>
+      <c r="G13">
+        <v>2.08</v>
+      </c>
+      <c r="H13">
+        <v>1.82</v>
+      </c>
+      <c r="I13">
+        <v>1.81</v>
+      </c>
       <c r="J13" t="s">
         <v>154</v>
+      </c>
+      <c r="K13">
+        <v>1.55</v>
       </c>
       <c r="M13">
         <v>6</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>151</v>
+      </c>
+      <c r="O13">
+        <v>1.43</v>
+      </c>
+      <c r="P13">
+        <v>2.38</v>
+      </c>
+      <c r="Q13">
+        <v>2.93</v>
+      </c>
+      <c r="R13">
+        <v>404</v>
+      </c>
+      <c r="S13">
+        <v>3.63</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -14426,14 +14465,53 @@
       <c r="B14" s="6" t="s">
         <v>120</v>
       </c>
+      <c r="C14">
+        <v>1.68</v>
+      </c>
+      <c r="D14">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="E14">
+        <v>4.97</v>
+      </c>
+      <c r="F14">
+        <v>404</v>
+      </c>
+      <c r="G14">
+        <v>1.76</v>
+      </c>
+      <c r="H14">
+        <v>2.23</v>
+      </c>
+      <c r="I14">
+        <v>1.56</v>
+      </c>
       <c r="J14" t="s">
         <v>154</v>
+      </c>
+      <c r="K14">
+        <v>1.35</v>
       </c>
       <c r="M14">
         <v>31</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>43</v>
+      </c>
+      <c r="O14">
+        <v>1.29</v>
+      </c>
+      <c r="P14">
+        <v>1.97</v>
+      </c>
+      <c r="Q14">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="R14">
+        <v>2.59</v>
+      </c>
+      <c r="S14">
+        <v>2.88</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -14443,14 +14521,53 @@
       <c r="B15" s="6" t="s">
         <v>359</v>
       </c>
+      <c r="C15">
+        <v>1.58</v>
+      </c>
+      <c r="D15">
+        <v>4.46</v>
+      </c>
+      <c r="E15">
+        <v>5.68</v>
+      </c>
+      <c r="F15">
+        <v>4.26</v>
+      </c>
+      <c r="G15">
+        <v>1.76</v>
+      </c>
+      <c r="H15">
+        <v>2.15</v>
+      </c>
+      <c r="I15">
+        <v>1.56</v>
+      </c>
       <c r="J15" t="s">
         <v>154</v>
+      </c>
+      <c r="K15">
+        <v>404</v>
       </c>
       <c r="M15">
         <v>48</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>80</v>
+      </c>
+      <c r="O15">
+        <v>404</v>
+      </c>
+      <c r="P15">
+        <v>1.96</v>
+      </c>
+      <c r="Q15">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="R15">
+        <v>2.59</v>
+      </c>
+      <c r="S15">
+        <v>2.89</v>
       </c>
     </row>
   </sheetData>

--- a/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
+++ b/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="12" activeTab="18"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="13" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="27" r:id="rId1"/>
@@ -26,13 +26,14 @@
     <sheet name="agostoInvest" sheetId="17" r:id="rId17"/>
     <sheet name="setembro" sheetId="31" r:id="rId18"/>
     <sheet name="outubro" sheetId="32" r:id="rId19"/>
+    <sheet name="novembro" sheetId="33" r:id="rId20"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="361">
   <si>
     <t>DATA</t>
   </si>
@@ -1125,6 +1126,9 @@
   </si>
   <si>
     <t>SOUTHAMPTON vs BIRMINGHAM CITY</t>
+  </si>
+  <si>
+    <t>INTERNACIONAL vs AMERICA MG</t>
   </si>
 </sst>
 </file>
@@ -1706,7 +1710,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="87">
+  <dxfs count="89">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2632,16 +2656,16 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Equipes-style 2" pivot="0" count="2">
+      <tableStyleElement type="firstRowStripe" dxfId="88"/>
+      <tableStyleElement type="secondRowStripe" dxfId="87"/>
+    </tableStyle>
+    <tableStyle name="Equipes-style 3" pivot="0" count="2">
       <tableStyleElement type="firstRowStripe" dxfId="86"/>
       <tableStyleElement type="secondRowStripe" dxfId="85"/>
     </tableStyle>
-    <tableStyle name="Equipes-style 3" pivot="0" count="2">
+    <tableStyle name="Equipes-style 4" pivot="0" count="2">
       <tableStyleElement type="firstRowStripe" dxfId="84"/>
       <tableStyleElement type="secondRowStripe" dxfId="83"/>
-    </tableStyle>
-    <tableStyle name="Equipes-style 4" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="82"/>
-      <tableStyleElement type="secondRowStripe" dxfId="81"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2656,16 +2680,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_2355" displayName="Table_2355" ref="G106:J106" headerRowCount="0" headerRowDxfId="74" dataDxfId="73" totalsRowDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_2355" displayName="Table_2355" ref="G106:J106" headerRowCount="0" headerRowDxfId="76" dataDxfId="75" totalsRowDxfId="74">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="71">
+    <tableColumn id="1" name="Column1" dataDxfId="73">
       <calculatedColumnFormula>COUNTIF($J$2:$J$90,H106)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="70"/>
-    <tableColumn id="3" name="Column3" dataDxfId="69">
+    <tableColumn id="2" name="Column2" dataDxfId="72"/>
+    <tableColumn id="3" name="Column3" dataDxfId="71">
       <calculatedColumnFormula>SUMIFS($H$2:$H$90,$J$2:$J$90,H106)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="68">
+    <tableColumn id="4" name="Column4" dataDxfId="70">
       <calculatedColumnFormula>I106/D$100*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2674,16 +2698,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_3366" displayName="Table_3366" ref="G107:J107" headerRowCount="0" headerRowDxfId="67" dataDxfId="66" totalsRowDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_3366" displayName="Table_3366" ref="G107:J107" headerRowCount="0" headerRowDxfId="69" dataDxfId="68" totalsRowDxfId="67">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="64">
+    <tableColumn id="1" name="Column1" dataDxfId="66">
       <calculatedColumnFormula>COUNTIF($J$2:$J$90,H107)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="63"/>
-    <tableColumn id="3" name="Column3" dataDxfId="62">
+    <tableColumn id="2" name="Column2" dataDxfId="65"/>
+    <tableColumn id="3" name="Column3" dataDxfId="64">
       <calculatedColumnFormula>SUMIFS($H$2:$H$90,$J$2:$J$90,H107)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="61">
+    <tableColumn id="4" name="Column4" dataDxfId="63">
       <calculatedColumnFormula>I107/D$100*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2692,17 +2716,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_4377" displayName="Table_4377" ref="G108:J110" headerRowCount="0" totalsRowCount="1" headerRowDxfId="60" dataDxfId="59" totalsRowDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_4377" displayName="Table_4377" ref="G108:J110" headerRowCount="0" totalsRowCount="1" headerRowDxfId="62" dataDxfId="61" totalsRowDxfId="60">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="56">
+    <tableColumn id="1" name="Column1" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="58">
       <calculatedColumnFormula>COUNTIF($J$2:$J$90,H108)</calculatedColumnFormula>
       <totalsRowFormula>SUM(G93:G109)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="3" name="Column3" dataDxfId="53" totalsRowDxfId="52">
+    <tableColumn id="2" name="Column2" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="3" name="Column3" dataDxfId="55" totalsRowDxfId="54">
       <calculatedColumnFormula>SUMIFS($H$2:$H$90,$J$2:$J$90,H108)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="51" totalsRowDxfId="50">
+    <tableColumn id="4" name="Column4" dataDxfId="53" totalsRowDxfId="52">
       <calculatedColumnFormula>I108/D$100*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6400,26 +6424,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I93:I109">
-    <cfRule type="cellIs" dxfId="80" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85:H90 H2:H83">
-    <cfRule type="cellIs" dxfId="78" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="76" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8279,7 +8303,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9162,21 +9186,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F22:F38 I22:I38">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H20">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9440,7 +9464,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9855,21 +9879,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F7:F23 I7:I23">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10432,7 +10456,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10893,21 +10917,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F9:F23 I9:I23">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H7">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12002,7 +12026,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12549,21 +12573,21 @@
     <mergeCell ref="H13:I13"/>
   </mergeCells>
   <conditionalFormatting sqref="F15:F32 I15:I32">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H12">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13703,7 +13727,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13716,8 +13740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14572,7 +14596,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18193,7 +18217,183 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
+      <formula>"NOT INVEST"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="144" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>45231</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="J2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M2">
+        <v>54</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="N17" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19048,21 +19248,21 @@
     <mergeCell ref="H17:I17"/>
   </mergeCells>
   <conditionalFormatting sqref="F19:F36 I19:I36">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H16">
-    <cfRule type="cellIs" dxfId="45" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21509,7 +21709,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22568,21 +22768,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F25:F42 I25:I42">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H23">
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23671,7 +23871,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24324,21 +24524,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F13:F30 I13:I30">
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26666,7 +26866,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27579,21 +27779,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F22:F39 I22:I39">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H20">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
+++ b/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
@@ -1710,17 +1710,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="89">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="88">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2656,16 +2646,16 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Equipes-style 2" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="88"/>
-      <tableStyleElement type="secondRowStripe" dxfId="87"/>
+      <tableStyleElement type="firstRowStripe" dxfId="87"/>
+      <tableStyleElement type="secondRowStripe" dxfId="86"/>
     </tableStyle>
     <tableStyle name="Equipes-style 3" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="86"/>
-      <tableStyleElement type="secondRowStripe" dxfId="85"/>
+      <tableStyleElement type="firstRowStripe" dxfId="85"/>
+      <tableStyleElement type="secondRowStripe" dxfId="84"/>
     </tableStyle>
     <tableStyle name="Equipes-style 4" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="84"/>
-      <tableStyleElement type="secondRowStripe" dxfId="83"/>
+      <tableStyleElement type="firstRowStripe" dxfId="83"/>
+      <tableStyleElement type="secondRowStripe" dxfId="82"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2680,16 +2670,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_2355" displayName="Table_2355" ref="G106:J106" headerRowCount="0" headerRowDxfId="76" dataDxfId="75" totalsRowDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_2355" displayName="Table_2355" ref="G106:J106" headerRowCount="0" headerRowDxfId="75" dataDxfId="74" totalsRowDxfId="73">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="73">
+    <tableColumn id="1" name="Column1" dataDxfId="72">
       <calculatedColumnFormula>COUNTIF($J$2:$J$90,H106)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="72"/>
-    <tableColumn id="3" name="Column3" dataDxfId="71">
+    <tableColumn id="2" name="Column2" dataDxfId="71"/>
+    <tableColumn id="3" name="Column3" dataDxfId="70">
       <calculatedColumnFormula>SUMIFS($H$2:$H$90,$J$2:$J$90,H106)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="70">
+    <tableColumn id="4" name="Column4" dataDxfId="69">
       <calculatedColumnFormula>I106/D$100*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2698,16 +2688,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_3366" displayName="Table_3366" ref="G107:J107" headerRowCount="0" headerRowDxfId="69" dataDxfId="68" totalsRowDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_3366" displayName="Table_3366" ref="G107:J107" headerRowCount="0" headerRowDxfId="68" dataDxfId="67" totalsRowDxfId="66">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="66">
+    <tableColumn id="1" name="Column1" dataDxfId="65">
       <calculatedColumnFormula>COUNTIF($J$2:$J$90,H107)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="65"/>
-    <tableColumn id="3" name="Column3" dataDxfId="64">
+    <tableColumn id="2" name="Column2" dataDxfId="64"/>
+    <tableColumn id="3" name="Column3" dataDxfId="63">
       <calculatedColumnFormula>SUMIFS($H$2:$H$90,$J$2:$J$90,H107)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="63">
+    <tableColumn id="4" name="Column4" dataDxfId="62">
       <calculatedColumnFormula>I107/D$100*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2716,17 +2706,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_4377" displayName="Table_4377" ref="G108:J110" headerRowCount="0" totalsRowCount="1" headerRowDxfId="62" dataDxfId="61" totalsRowDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_4377" displayName="Table_4377" ref="G108:J110" headerRowCount="0" totalsRowCount="1" headerRowDxfId="61" dataDxfId="60" totalsRowDxfId="59">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="58">
+    <tableColumn id="1" name="Column1" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="57">
       <calculatedColumnFormula>COUNTIF($J$2:$J$90,H108)</calculatedColumnFormula>
       <totalsRowFormula>SUM(G93:G109)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="3" name="Column3" dataDxfId="55" totalsRowDxfId="54">
+    <tableColumn id="2" name="Column2" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="3" name="Column3" dataDxfId="54" totalsRowDxfId="53">
       <calculatedColumnFormula>SUMIFS($H$2:$H$90,$J$2:$J$90,H108)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="53" totalsRowDxfId="52">
+    <tableColumn id="4" name="Column4" dataDxfId="52" totalsRowDxfId="51">
       <calculatedColumnFormula>I108/D$100*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6424,26 +6414,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I93:I109">
-    <cfRule type="cellIs" dxfId="82" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85:H90 H2:H83">
-    <cfRule type="cellIs" dxfId="80" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="78" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8303,7 +8293,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9186,21 +9176,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F22:F38 I22:I38">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H20">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9464,7 +9454,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9879,21 +9869,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F7:F23 I7:I23">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10456,7 +10446,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10917,21 +10907,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F9:F23 I9:I23">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H7">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12026,7 +12016,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12573,21 +12563,21 @@
     <mergeCell ref="H13:I13"/>
   </mergeCells>
   <conditionalFormatting sqref="F15:F32 I15:I32">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H12">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13727,7 +13717,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14596,7 +14586,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18217,7 +18207,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18230,8 +18220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18308,14 +18298,53 @@
       <c r="B2" s="6" t="s">
         <v>360</v>
       </c>
+      <c r="C2">
+        <v>1.58</v>
+      </c>
+      <c r="D2">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="E2">
+        <v>5.66</v>
+      </c>
+      <c r="F2">
+        <v>4.43</v>
+      </c>
+      <c r="G2">
+        <v>1.72</v>
+      </c>
+      <c r="H2">
+        <v>2.21</v>
+      </c>
+      <c r="I2">
+        <v>1.53</v>
+      </c>
       <c r="J2" t="s">
         <v>154</v>
+      </c>
+      <c r="K2">
+        <v>1.41</v>
       </c>
       <c r="M2">
         <v>54</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>117</v>
+      </c>
+      <c r="O2">
+        <v>404</v>
+      </c>
+      <c r="P2">
+        <v>1.92</v>
+      </c>
+      <c r="Q2">
+        <v>2.23</v>
+      </c>
+      <c r="R2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="S2">
+        <v>2.86</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -18393,7 +18422,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19248,21 +19277,21 @@
     <mergeCell ref="H17:I17"/>
   </mergeCells>
   <conditionalFormatting sqref="F19:F36 I19:I36">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H16">
-    <cfRule type="cellIs" dxfId="47" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21709,7 +21738,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22768,21 +22797,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F25:F42 I25:I42">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H23">
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23871,7 +23900,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24524,21 +24553,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F13:F30 I13:I30">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26866,7 +26895,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27779,21 +27808,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F22:F39 I22:I39">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H20">
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
+++ b/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="362">
   <si>
     <t>DATA</t>
   </si>
@@ -1129,6 +1129,9 @@
   </si>
   <si>
     <t>INTERNACIONAL vs AMERICA MG</t>
+  </si>
+  <si>
+    <t>PARIS SG vs MONTPELLIER</t>
   </si>
 </sst>
 </file>
@@ -18220,8 +18223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18348,9 +18351,18 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="A3" s="5">
+        <v>45233</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="M3">
+        <v>29</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>

--- a/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
+++ b/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="370">
   <si>
     <t>DATA</t>
   </si>
@@ -1132,6 +1132,30 @@
   </si>
   <si>
     <t>PARIS SG vs MONTPELLIER</t>
+  </si>
+  <si>
+    <t>BRENTFORD vs WEST HAM UTD</t>
+  </si>
+  <si>
+    <t>DORTMUND vs BAYERN MUNICH</t>
+  </si>
+  <si>
+    <t>DUNDEE UTD vs INVERNESS</t>
+  </si>
+  <si>
+    <t>MONTEROSI vs PICERNO</t>
+  </si>
+  <si>
+    <t>PRESTON vs COVENTRY CITY</t>
+  </si>
+  <si>
+    <t>SALERNITANA vs NAPOLI</t>
+  </si>
+  <si>
+    <t>FORTALEZA vs FLAMENGO</t>
+  </si>
+  <si>
+    <t>NANTES vs REIMS</t>
   </si>
 </sst>
 </file>
@@ -18223,8 +18247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18232,7 +18256,7 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="144" x14ac:dyDescent="0.25">
@@ -18357,6 +18381,9 @@
       <c r="B3" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="J3" t="s">
+        <v>154</v>
+      </c>
       <c r="M3">
         <v>29</v>
       </c>
@@ -18365,63 +18392,171 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="A4" s="5">
+        <v>45234</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="J4" t="s">
+        <v>154</v>
+      </c>
+      <c r="M4">
+        <v>18</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="A5" s="5">
+        <v>45234</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="J5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M5">
+        <v>53</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="A6" s="5">
+        <v>45234</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="J6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M6">
+        <v>28</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="A7" s="5">
+        <v>45234</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="J7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M7">
+        <v>25</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="A8" s="5">
+        <v>45234</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="J8" t="s">
+        <v>154</v>
+      </c>
+      <c r="M8">
+        <v>54</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="N9" s="6"/>
+      <c r="A9" s="5">
+        <v>45234</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="J9" t="s">
+        <v>154</v>
+      </c>
+      <c r="M9">
+        <v>48</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="N10" s="6"/>
+      <c r="A10" s="5">
+        <v>45235</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="J10" t="s">
+        <v>154</v>
+      </c>
+      <c r="M10">
+        <v>56</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="N11" s="6"/>
+      <c r="A11" s="5">
+        <v>45235</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="J11" t="s">
+        <v>154</v>
+      </c>
+      <c r="M11">
+        <v>40</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
+      <c r="J12" t="s">
+        <v>154</v>
+      </c>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
+      <c r="J13" t="s">
+        <v>154</v>
+      </c>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
       <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">

--- a/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
+++ b/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
@@ -18247,8 +18247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18381,6 +18381,27 @@
       <c r="B3" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="C3">
+        <v>1.24</v>
+      </c>
+      <c r="D3">
+        <v>7.16</v>
+      </c>
+      <c r="E3">
+        <v>11.33</v>
+      </c>
+      <c r="F3">
+        <v>404</v>
+      </c>
+      <c r="G3">
+        <v>1.32</v>
+      </c>
+      <c r="H3">
+        <v>3.52</v>
+      </c>
+      <c r="I3">
+        <v>404</v>
+      </c>
       <c r="J3" t="s">
         <v>154</v>
       </c>
@@ -18389,6 +18410,21 @@
       </c>
       <c r="N3" s="6" t="s">
         <v>43</v>
+      </c>
+      <c r="O3">
+        <v>404</v>
+      </c>
+      <c r="P3">
+        <v>1.37</v>
+      </c>
+      <c r="Q3">
+        <v>1.45</v>
+      </c>
+      <c r="R3">
+        <v>1.64</v>
+      </c>
+      <c r="S3">
+        <v>1.83</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">

--- a/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
+++ b/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
@@ -18247,8 +18247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
+++ b/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="370">
   <si>
     <t>DATA</t>
   </si>
@@ -18247,8 +18247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18434,14 +18434,53 @@
       <c r="B4" s="6" t="s">
         <v>362</v>
       </c>
+      <c r="C4">
+        <v>2.06</v>
+      </c>
+      <c r="D4">
+        <v>3.77</v>
+      </c>
+      <c r="E4">
+        <v>3.6</v>
+      </c>
+      <c r="F4">
+        <v>3.87</v>
+      </c>
+      <c r="G4">
+        <v>1.74</v>
+      </c>
+      <c r="H4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I4">
+        <v>1.54</v>
+      </c>
       <c r="J4" t="s">
         <v>154</v>
+      </c>
+      <c r="K4">
+        <v>1.34</v>
       </c>
       <c r="M4">
         <v>18</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>134</v>
+      </c>
+      <c r="O4">
+        <v>1.28</v>
+      </c>
+      <c r="P4">
+        <v>1.93</v>
+      </c>
+      <c r="Q4">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="R4">
+        <v>2.52</v>
+      </c>
+      <c r="S4">
+        <v>2.8</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -18451,14 +18490,53 @@
       <c r="B5" s="6" t="s">
         <v>363</v>
       </c>
+      <c r="C5">
+        <v>3.73</v>
+      </c>
+      <c r="D5">
+        <v>4.38</v>
+      </c>
+      <c r="E5">
+        <v>1.88</v>
+      </c>
+      <c r="F5">
+        <v>404</v>
+      </c>
+      <c r="G5">
+        <v>1.38</v>
+      </c>
+      <c r="H5">
+        <v>3.21</v>
+      </c>
+      <c r="I5">
+        <v>1.3</v>
+      </c>
       <c r="J5" t="s">
         <v>154</v>
+      </c>
+      <c r="K5">
+        <v>404</v>
       </c>
       <c r="M5">
         <v>53</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>78</v>
+      </c>
+      <c r="O5">
+        <v>404</v>
+      </c>
+      <c r="P5">
+        <v>1.45</v>
+      </c>
+      <c r="Q5">
+        <v>1.56</v>
+      </c>
+      <c r="R5">
+        <v>1.76</v>
+      </c>
+      <c r="S5">
+        <v>1.96</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -18468,14 +18546,53 @@
       <c r="B6" s="6" t="s">
         <v>364</v>
       </c>
+      <c r="C6">
+        <v>1.38</v>
+      </c>
+      <c r="D6">
+        <v>4.88</v>
+      </c>
+      <c r="E6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F6">
+        <v>3.65</v>
+      </c>
+      <c r="G6">
+        <v>1.88</v>
+      </c>
+      <c r="H6">
+        <v>1.96</v>
+      </c>
+      <c r="I6">
+        <v>1.65</v>
+      </c>
       <c r="J6" t="s">
         <v>154</v>
+      </c>
+      <c r="K6">
+        <v>1.43</v>
       </c>
       <c r="M6">
         <v>28</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>47</v>
+      </c>
+      <c r="O6">
+        <v>1.28</v>
+      </c>
+      <c r="P6">
+        <v>2.1</v>
+      </c>
+      <c r="Q6">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="R6">
+        <v>2.64</v>
+      </c>
+      <c r="S6">
+        <v>3.09</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -18485,14 +18602,53 @@
       <c r="B7" s="6" t="s">
         <v>365</v>
       </c>
+      <c r="C7">
+        <v>3.72</v>
+      </c>
+      <c r="D7">
+        <v>3.3</v>
+      </c>
+      <c r="E7">
+        <v>2.06</v>
+      </c>
+      <c r="F7">
+        <v>2.63</v>
+      </c>
+      <c r="G7">
+        <v>2.37</v>
+      </c>
+      <c r="H7">
+        <v>1.56</v>
+      </c>
+      <c r="I7">
+        <v>2.1</v>
+      </c>
       <c r="J7" t="s">
         <v>154</v>
+      </c>
+      <c r="K7">
+        <v>1.82</v>
       </c>
       <c r="M7">
         <v>25</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>54</v>
+      </c>
+      <c r="O7">
+        <v>1.6</v>
+      </c>
+      <c r="P7">
+        <v>2.71</v>
+      </c>
+      <c r="Q7">
+        <v>404</v>
+      </c>
+      <c r="R7">
+        <v>404</v>
+      </c>
+      <c r="S7">
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -18502,14 +18658,53 @@
       <c r="B8" s="6" t="s">
         <v>366</v>
       </c>
+      <c r="C8">
+        <v>2.81</v>
+      </c>
+      <c r="D8">
+        <v>3.32</v>
+      </c>
+      <c r="E8">
+        <v>2.7</v>
+      </c>
+      <c r="F8">
+        <v>3.22</v>
+      </c>
+      <c r="G8">
+        <v>2.19</v>
+      </c>
+      <c r="H8">
+        <v>1.73</v>
+      </c>
+      <c r="I8">
+        <v>1.92</v>
+      </c>
       <c r="J8" t="s">
         <v>154</v>
+      </c>
+      <c r="K8">
+        <v>1.62</v>
       </c>
       <c r="M8">
         <v>54</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>80</v>
+      </c>
+      <c r="O8">
+        <v>1.47</v>
+      </c>
+      <c r="P8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="Q8">
+        <v>2.89</v>
+      </c>
+      <c r="R8">
+        <v>404</v>
+      </c>
+      <c r="S8">
+        <v>3.97</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -18519,14 +18714,53 @@
       <c r="B9" s="6" t="s">
         <v>367</v>
       </c>
+      <c r="C9">
+        <v>8.14</v>
+      </c>
+      <c r="D9">
+        <v>5.28</v>
+      </c>
+      <c r="E9">
+        <v>1.39</v>
+      </c>
+      <c r="F9">
+        <v>404</v>
+      </c>
+      <c r="G9">
+        <v>1.59</v>
+      </c>
+      <c r="H9">
+        <v>2.48</v>
+      </c>
+      <c r="I9">
+        <v>1.42</v>
+      </c>
       <c r="J9" t="s">
         <v>154</v>
+      </c>
+      <c r="K9">
+        <v>1.26</v>
       </c>
       <c r="M9">
         <v>48</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>52</v>
+      </c>
+      <c r="O9">
+        <v>404</v>
+      </c>
+      <c r="P9">
+        <v>1.72</v>
+      </c>
+      <c r="Q9">
+        <v>1.95</v>
+      </c>
+      <c r="R9">
+        <v>2.21</v>
+      </c>
+      <c r="S9">
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -18536,14 +18770,53 @@
       <c r="B10" s="6" t="s">
         <v>368</v>
       </c>
+      <c r="C10">
+        <v>3.02</v>
+      </c>
+      <c r="D10">
+        <v>3.15</v>
+      </c>
+      <c r="E10">
+        <v>2.64</v>
+      </c>
+      <c r="F10">
+        <v>3.08</v>
+      </c>
+      <c r="G10">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H10">
+        <v>1.69</v>
+      </c>
+      <c r="I10">
+        <v>1.97</v>
+      </c>
       <c r="J10" t="s">
         <v>154</v>
+      </c>
+      <c r="K10">
+        <v>1.67</v>
       </c>
       <c r="M10">
         <v>56</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>117</v>
+      </c>
+      <c r="O10">
+        <v>1.51</v>
+      </c>
+      <c r="P10">
+        <v>2.63</v>
+      </c>
+      <c r="Q10">
+        <v>2.94</v>
+      </c>
+      <c r="R10">
+        <v>404</v>
+      </c>
+      <c r="S10">
+        <v>4.07</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -18553,46 +18826,73 @@
       <c r="B11" s="6" t="s">
         <v>369</v>
       </c>
+      <c r="C11">
+        <v>2.83</v>
+      </c>
+      <c r="D11">
+        <v>3.24</v>
+      </c>
+      <c r="E11">
+        <v>2.69</v>
+      </c>
+      <c r="F11">
+        <v>3.43</v>
+      </c>
+      <c r="G11">
+        <v>2.1</v>
+      </c>
+      <c r="H11">
+        <v>1.79</v>
+      </c>
+      <c r="I11">
+        <v>1.83</v>
+      </c>
       <c r="J11" t="s">
         <v>154</v>
+      </c>
+      <c r="K11">
+        <v>1.55</v>
       </c>
       <c r="M11">
         <v>40</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>43</v>
+      </c>
+      <c r="O11">
+        <v>1.42</v>
+      </c>
+      <c r="P11">
+        <v>2.42</v>
+      </c>
+      <c r="Q11">
+        <v>2.98</v>
+      </c>
+      <c r="R11">
+        <v>3.35</v>
+      </c>
+      <c r="S11">
+        <v>3.23</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
-      <c r="J12" t="s">
-        <v>154</v>
-      </c>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
-      <c r="J13" t="s">
-        <v>154</v>
-      </c>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
-      <c r="J14" t="s">
-        <v>154</v>
-      </c>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
-      <c r="J15" t="s">
-        <v>154</v>
-      </c>
       <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">

--- a/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
+++ b/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="371">
   <si>
     <t>DATA</t>
   </si>
@@ -1156,6 +1156,9 @@
   </si>
   <si>
     <t>NANTES vs REIMS</t>
+  </si>
+  <si>
+    <t>VENEZIA vs CATANZARO</t>
   </si>
 </sst>
 </file>
@@ -18248,7 +18251,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18876,9 +18879,21 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="N12" s="6"/>
+      <c r="A12" s="5">
+        <v>45240</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="J12" t="s">
+        <v>154</v>
+      </c>
+      <c r="M12">
+        <v>46</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>

--- a/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
+++ b/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="374">
   <si>
     <t>DATA</t>
   </si>
@@ -1159,6 +1159,15 @@
   </si>
   <si>
     <t>VENEZIA vs CATANZARO</t>
+  </si>
+  <si>
+    <t>BOCHUM vs FC KOLN</t>
+  </si>
+  <si>
+    <t>SOUTHAMPTON vs WEST BROM</t>
+  </si>
+  <si>
+    <t>V. FRANCAVILLA vs CASERTANA</t>
   </si>
 </sst>
 </file>
@@ -18251,7 +18260,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18896,19 +18905,55 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="N13" s="6"/>
+      <c r="A13" s="5">
+        <v>45241</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="J13" t="s">
+        <v>154</v>
+      </c>
+      <c r="M13">
+        <v>73</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="N14" s="6"/>
+      <c r="A14" s="5">
+        <v>45241</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14">
+        <v>19</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="N15" s="6"/>
+      <c r="A15" s="5">
+        <v>45241</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15">
+        <v>29</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>

--- a/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
+++ b/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
@@ -18260,7 +18260,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18894,14 +18894,53 @@
       <c r="B12" s="9" t="s">
         <v>370</v>
       </c>
+      <c r="C12">
+        <v>1.96</v>
+      </c>
+      <c r="D12">
+        <v>3.61</v>
+      </c>
+      <c r="E12">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="F12">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="G12">
+        <v>1.82</v>
+      </c>
+      <c r="H12">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I12">
+        <v>1.62</v>
+      </c>
       <c r="J12" t="s">
         <v>154</v>
+      </c>
+      <c r="K12">
+        <v>1.4</v>
       </c>
       <c r="M12">
         <v>46</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>151</v>
+      </c>
+      <c r="O12">
+        <v>404</v>
+      </c>
+      <c r="P12">
+        <v>2.06</v>
+      </c>
+      <c r="Q12">
+        <v>2.44</v>
+      </c>
+      <c r="R12">
+        <v>404</v>
+      </c>
+      <c r="S12">
+        <v>3.08</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">

--- a/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
+++ b/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
@@ -18259,8 +18259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18950,14 +18950,53 @@
       <c r="B13" s="6" t="s">
         <v>371</v>
       </c>
+      <c r="C13">
+        <v>2.67</v>
+      </c>
+      <c r="D13">
+        <v>3.62</v>
+      </c>
+      <c r="E13">
+        <v>2.66</v>
+      </c>
+      <c r="F13">
+        <v>404</v>
+      </c>
+      <c r="G13">
+        <v>1.75</v>
+      </c>
+      <c r="H13">
+        <v>2.19</v>
+      </c>
+      <c r="I13">
+        <v>1.54</v>
+      </c>
       <c r="J13" t="s">
         <v>154</v>
+      </c>
+      <c r="K13">
+        <v>1.33</v>
       </c>
       <c r="M13">
         <v>73</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>78</v>
+      </c>
+      <c r="O13">
+        <v>1.27</v>
+      </c>
+      <c r="P13">
+        <v>1.93</v>
+      </c>
+      <c r="Q13">
+        <v>2.23</v>
+      </c>
+      <c r="R13">
+        <v>2.52</v>
+      </c>
+      <c r="S13">
+        <v>2.8</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -18967,14 +19006,53 @@
       <c r="B14" s="6" t="s">
         <v>372</v>
       </c>
+      <c r="C14">
+        <v>1.92</v>
+      </c>
+      <c r="D14">
+        <v>3.72</v>
+      </c>
+      <c r="E14">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="F14">
+        <v>3.82</v>
+      </c>
+      <c r="G14">
+        <v>1.91</v>
+      </c>
+      <c r="H14">
+        <v>1.98</v>
+      </c>
+      <c r="I14">
+        <v>1.67</v>
+      </c>
       <c r="J14" t="s">
         <v>154</v>
+      </c>
+      <c r="K14">
+        <v>1.44</v>
       </c>
       <c r="M14">
         <v>19</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>80</v>
+      </c>
+      <c r="O14">
+        <v>404</v>
+      </c>
+      <c r="P14">
+        <v>2.15</v>
+      </c>
+      <c r="Q14">
+        <v>5.27</v>
+      </c>
+      <c r="R14">
+        <v>2.72</v>
+      </c>
+      <c r="S14">
+        <v>3.22</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -18984,14 +19062,53 @@
       <c r="B15" s="6" t="s">
         <v>373</v>
       </c>
+      <c r="C15">
+        <v>2.97</v>
+      </c>
+      <c r="D15">
+        <v>3.11</v>
+      </c>
+      <c r="E15">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="F15">
+        <v>2.61</v>
+      </c>
+      <c r="G15">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H15">
+        <v>1.66</v>
+      </c>
+      <c r="I15">
+        <v>1.93</v>
+      </c>
       <c r="J15" t="s">
         <v>154</v>
+      </c>
+      <c r="K15">
+        <v>1.62</v>
       </c>
       <c r="M15">
         <v>29</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>54</v>
+      </c>
+      <c r="O15">
+        <v>1.45</v>
+      </c>
+      <c r="P15">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="Q15">
+        <v>404</v>
+      </c>
+      <c r="R15">
+        <v>404</v>
+      </c>
+      <c r="S15">
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">

--- a/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
+++ b/tecnica_analise/2023/EXPECTED-OVER-2023.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="375">
   <si>
     <t>DATA</t>
   </si>
@@ -1168,6 +1168,9 @@
   </si>
   <si>
     <t>V. FRANCAVILLA vs CASERTANA</t>
+  </si>
+  <si>
+    <t>                   CROTONE vs MONTEROSI</t>
   </si>
 </sst>
 </file>
@@ -18259,8 +18262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19112,8 +19115,21 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="N16" s="6"/>
+      <c r="A16" s="5">
+        <v>45242</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="J16" t="s">
+        <v>154</v>
+      </c>
+      <c r="M16">
+        <v>41</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
